--- a/BOM/Printed Part List.xlsx
+++ b/BOM/Printed Part List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B9A5E9-D578-467F-B4E3-793AADF262B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7E7E51-9349-4591-92E5-5DF8DB0BAF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
+    <workbookView xWindow="-27945" yWindow="2715" windowWidth="23250" windowHeight="12480" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
   </bookViews>
   <sheets>
     <sheet name="000 - Printed Parts" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="323">
   <si>
     <t>Component</t>
   </si>
@@ -994,6 +994,15 @@
   </si>
   <si>
     <t>99 - XY - Motion - Y Axis Front Rail Guide.stl</t>
+  </si>
+  <si>
+    <t>PN100</t>
+  </si>
+  <si>
+    <t>Rear PTFE Tube Guide</t>
+  </si>
+  <si>
+    <t>100 - XY - Wiring - Rear PTFE Tube Guide.stl</t>
   </si>
 </sst>
 </file>
@@ -1060,10 +1069,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F341AE2-224B-4051-B04D-BA10CC5651EC}" name="Table1" displayName="Table1" ref="A1:I95" totalsRowShown="0">
-  <autoFilter ref="A1:I95" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I84">
-    <sortCondition ref="A1:A84"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F341AE2-224B-4051-B04D-BA10CC5651EC}" name="Table1" displayName="Table1" ref="A1:I96" totalsRowShown="0">
+  <autoFilter ref="A1:I96" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I85">
+    <sortCondition ref="A1:A85"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A8EA61BD-839A-4759-B873-CEDA7BEA684B}" name="Number"/>
@@ -1377,10 +1386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC8DB31-6D45-4FED-94B6-5390BD4B0F2C}">
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M81" sqref="M81"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3394,33 +3403,33 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>256</v>
+        <v>320</v>
       </c>
       <c r="B75" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="D75" t="s">
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>257</v>
+        <v>321</v>
       </c>
       <c r="F75" t="s">
         <v>53</v>
       </c>
       <c r="G75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>259</v>
+        <v>322</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B76" t="s">
         <v>127</v>
@@ -3432,7 +3441,7 @@
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F76" t="s">
         <v>53</v>
@@ -3441,12 +3450,12 @@
         <v>3</v>
       </c>
       <c r="I76" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="B77" t="s">
         <v>127</v>
@@ -3455,27 +3464,24 @@
         <v>128</v>
       </c>
       <c r="D77" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>129</v>
+        <v>258</v>
       </c>
       <c r="F77" t="s">
         <v>53</v>
       </c>
       <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="H77" t="s">
-        <v>270</v>
+        <v>3</v>
       </c>
       <c r="I77" t="s">
-        <v>130</v>
+        <v>260</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B78" t="s">
         <v>127</v>
@@ -3484,10 +3490,10 @@
         <v>128</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E78" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F78" t="s">
         <v>53</v>
@@ -3496,15 +3502,15 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>139</v>
+        <v>270</v>
       </c>
       <c r="I78" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B79" t="s">
         <v>127</v>
@@ -3513,10 +3519,10 @@
         <v>128</v>
       </c>
       <c r="D79" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F79" t="s">
         <v>53</v>
@@ -3525,15 +3531,15 @@
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>271</v>
+        <v>139</v>
       </c>
       <c r="I79" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>174</v>
+        <v>236</v>
       </c>
       <c r="B80" t="s">
         <v>127</v>
@@ -3542,10 +3548,10 @@
         <v>128</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E80" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F80" t="s">
         <v>53</v>
@@ -3554,15 +3560,15 @@
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I80" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
       <c r="B81" t="s">
         <v>127</v>
@@ -3571,24 +3577,27 @@
         <v>128</v>
       </c>
       <c r="D81" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E81" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F81" t="s">
         <v>53</v>
       </c>
       <c r="G81">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>272</v>
       </c>
       <c r="I81" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="B82" t="s">
         <v>127</v>
@@ -3600,21 +3609,21 @@
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="F82" t="s">
         <v>53</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I82" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B83" t="s">
         <v>127</v>
@@ -3626,7 +3635,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F83" t="s">
         <v>53</v>
@@ -3635,12 +3644,12 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B84" t="s">
         <v>127</v>
@@ -3652,7 +3661,7 @@
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F84" t="s">
         <v>53</v>
@@ -3661,38 +3670,38 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>275</v>
+        <v>227</v>
       </c>
       <c r="B85" t="s">
-        <v>278</v>
+        <v>127</v>
       </c>
       <c r="C85" t="s">
-        <v>281</v>
+        <v>128</v>
       </c>
       <c r="D85" t="s">
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>279</v>
+        <v>158</v>
       </c>
       <c r="F85" t="s">
-        <v>293</v>
+        <v>53</v>
       </c>
       <c r="G85">
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>282</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B86" t="s">
         <v>278</v>
@@ -3704,21 +3713,21 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F86" t="s">
         <v>293</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B87" t="s">
         <v>278</v>
@@ -3730,33 +3739,33 @@
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F87" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B88" t="s">
         <v>278</v>
       </c>
       <c r="C88" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D88" t="s">
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F88" t="s">
         <v>292</v>
@@ -3765,12 +3774,12 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B89" t="s">
         <v>278</v>
@@ -3782,7 +3791,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F89" t="s">
         <v>292</v>
@@ -3791,15 +3800,15 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B90" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="C90" t="s">
         <v>287</v>
@@ -3808,85 +3817,85 @@
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F90" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="B91" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="C91" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="D91" t="s">
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="F91" t="s">
         <v>293</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B92" t="s">
         <v>278</v>
       </c>
       <c r="C92" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="D92" t="s">
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F92" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G92">
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="B93" t="s">
         <v>278</v>
       </c>
       <c r="C93" t="s">
-        <v>300</v>
+        <v>36</v>
       </c>
       <c r="D93" t="s">
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="F93" t="s">
         <v>292</v>
@@ -3895,12 +3904,12 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B94" t="s">
         <v>278</v>
@@ -3912,24 +3921,24 @@
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F94" t="s">
         <v>292</v>
       </c>
       <c r="G94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B95" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="C95" t="s">
         <v>300</v>
@@ -3938,15 +3947,41 @@
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F95" t="s">
         <v>292</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>302</v>
+      </c>
+      <c r="B96" t="s">
+        <v>295</v>
+      </c>
+      <c r="C96" t="s">
+        <v>300</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1</v>
+      </c>
+      <c r="E96" t="s">
+        <v>305</v>
+      </c>
+      <c r="F96" t="s">
+        <v>292</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="I96" t="s">
         <v>307</v>
       </c>
     </row>

--- a/BOM/Printed Part List.xlsx
+++ b/BOM/Printed Part List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7E7E51-9349-4591-92E5-5DF8DB0BAF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551003AF-69E0-48E1-8BEC-8AAE4F0E4910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27945" yWindow="2715" windowWidth="23250" windowHeight="12480" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
+    <workbookView xWindow="-27600" yWindow="3060" windowWidth="23250" windowHeight="12480" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
   </bookViews>
   <sheets>
     <sheet name="000 - Printed Parts" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="326">
   <si>
     <t>Component</t>
   </si>
@@ -1003,6 +1003,15 @@
   </si>
   <si>
     <t>100 - XY - Wiring - Rear PTFE Tube Guide.stl</t>
+  </si>
+  <si>
+    <t>PN089</t>
+  </si>
+  <si>
+    <t>Stepper Alignment Slider</t>
+  </si>
+  <si>
+    <t>89 - XY - Motion - Stepper Alignment Slider.stl</t>
   </si>
 </sst>
 </file>
@@ -1069,10 +1078,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F341AE2-224B-4051-B04D-BA10CC5651EC}" name="Table1" displayName="Table1" ref="A1:I96" totalsRowShown="0">
-  <autoFilter ref="A1:I96" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I85">
-    <sortCondition ref="A1:A85"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F341AE2-224B-4051-B04D-BA10CC5651EC}" name="Table1" displayName="Table1" ref="A1:I97" totalsRowShown="0">
+  <autoFilter ref="A1:I97" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I86">
+    <sortCondition ref="A1:A86"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A8EA61BD-839A-4759-B873-CEDA7BEA684B}" name="Number"/>
@@ -1386,10 +1395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC8DB31-6D45-4FED-94B6-5390BD4B0F2C}">
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3140,322 +3149,322 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>195</v>
+        <v>323</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D65" t="s">
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>193</v>
+        <v>324</v>
       </c>
       <c r="F65" t="s">
-        <v>53</v>
-      </c>
-      <c r="G65" t="s">
-        <v>58</v>
+        <v>35</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>194</v>
+        <v>325</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="B66" t="s">
         <v>36</v>
       </c>
       <c r="C66" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D66" t="s">
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>37</v>
+        <v>193</v>
       </c>
       <c r="F66" t="s">
         <v>53</v>
       </c>
-      <c r="G66">
-        <v>5</v>
-      </c>
-      <c r="H66" t="s">
-        <v>156</v>
+      <c r="G66" t="s">
+        <v>58</v>
       </c>
       <c r="I66" t="s">
-        <v>95</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B67" t="s">
         <v>36</v>
       </c>
       <c r="C67" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D67" t="s">
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="G67">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H67" t="s">
         <v>156</v>
       </c>
       <c r="I67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="B68" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" t="s">
+        <v>38</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>39</v>
+      </c>
+      <c r="F68" t="s">
+        <v>35</v>
+      </c>
+      <c r="G68">
         <v>4</v>
       </c>
-      <c r="C68" t="s">
-        <v>24</v>
-      </c>
-      <c r="D68" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" t="s">
-        <v>56</v>
-      </c>
-      <c r="F68" t="s">
-        <v>53</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
+      <c r="H68" t="s">
+        <v>156</v>
       </c>
       <c r="I68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="B69" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D69" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E69" t="s">
-        <v>197</v>
+        <v>56</v>
       </c>
       <c r="F69" t="s">
         <v>53</v>
       </c>
       <c r="G69">
-        <v>2</v>
-      </c>
-      <c r="H69" t="s">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>196</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B70" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="C70" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D70" t="s">
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F70" t="s">
         <v>53</v>
       </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70" t="s">
+        <v>156</v>
+      </c>
       <c r="I70" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B71" t="s">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="C71" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="D71" t="s">
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>112</v>
+        <v>203</v>
       </c>
       <c r="F71" t="s">
         <v>53</v>
       </c>
-      <c r="G71">
-        <v>16</v>
-      </c>
       <c r="I71" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B72" t="s">
         <v>36</v>
       </c>
       <c r="C72" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="D72" t="s">
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>205</v>
+        <v>112</v>
       </c>
       <c r="F72" t="s">
         <v>53</v>
       </c>
+      <c r="G72">
+        <v>16</v>
+      </c>
       <c r="I72" t="s">
-        <v>201</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B73" t="s">
         <v>36</v>
       </c>
       <c r="C73" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="D73" t="s">
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>118</v>
+        <v>205</v>
       </c>
       <c r="F73" t="s">
         <v>53</v>
       </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
       <c r="I73" t="s">
-        <v>119</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B74" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C74" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="D74" t="s">
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>199</v>
+        <v>118</v>
       </c>
       <c r="F74" t="s">
         <v>53</v>
       </c>
       <c r="G74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>319</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="B75" t="s">
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="D75" t="s">
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>321</v>
+        <v>199</v>
       </c>
       <c r="F75" t="s">
         <v>53</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>256</v>
+        <v>320</v>
       </c>
       <c r="B76" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="D76" t="s">
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>257</v>
+        <v>321</v>
       </c>
       <c r="F76" t="s">
         <v>53</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>259</v>
+        <v>322</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B77" t="s">
         <v>127</v>
@@ -3467,7 +3476,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F77" t="s">
         <v>53</v>
@@ -3476,12 +3485,12 @@
         <v>3</v>
       </c>
       <c r="I77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="B78" t="s">
         <v>127</v>
@@ -3490,27 +3499,24 @@
         <v>128</v>
       </c>
       <c r="D78" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>129</v>
+        <v>258</v>
       </c>
       <c r="F78" t="s">
         <v>53</v>
       </c>
       <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78" t="s">
-        <v>270</v>
+        <v>3</v>
       </c>
       <c r="I78" t="s">
-        <v>130</v>
+        <v>260</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B79" t="s">
         <v>127</v>
@@ -3519,10 +3525,10 @@
         <v>128</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E79" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F79" t="s">
         <v>53</v>
@@ -3531,15 +3537,15 @@
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>139</v>
+        <v>270</v>
       </c>
       <c r="I79" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B80" t="s">
         <v>127</v>
@@ -3548,10 +3554,10 @@
         <v>128</v>
       </c>
       <c r="D80" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E80" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F80" t="s">
         <v>53</v>
@@ -3560,15 +3566,15 @@
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>271</v>
+        <v>139</v>
       </c>
       <c r="I80" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>174</v>
+        <v>236</v>
       </c>
       <c r="B81" t="s">
         <v>127</v>
@@ -3577,10 +3583,10 @@
         <v>128</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E81" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F81" t="s">
         <v>53</v>
@@ -3589,15 +3595,15 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I81" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
       <c r="B82" t="s">
         <v>127</v>
@@ -3606,24 +3612,27 @@
         <v>128</v>
       </c>
       <c r="D82" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E82" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F82" t="s">
         <v>53</v>
       </c>
       <c r="G82">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="H82" t="s">
+        <v>272</v>
       </c>
       <c r="I82" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="B83" t="s">
         <v>127</v>
@@ -3635,21 +3644,21 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="F83" t="s">
         <v>53</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I83" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B84" t="s">
         <v>127</v>
@@ -3661,7 +3670,7 @@
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F84" t="s">
         <v>53</v>
@@ -3670,12 +3679,12 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B85" t="s">
         <v>127</v>
@@ -3687,7 +3696,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F85" t="s">
         <v>53</v>
@@ -3696,38 +3705,38 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>275</v>
+        <v>227</v>
       </c>
       <c r="B86" t="s">
-        <v>278</v>
+        <v>127</v>
       </c>
       <c r="C86" t="s">
-        <v>281</v>
+        <v>128</v>
       </c>
       <c r="D86" t="s">
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>279</v>
+        <v>158</v>
       </c>
       <c r="F86" t="s">
-        <v>293</v>
+        <v>53</v>
       </c>
       <c r="G86">
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>282</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B87" t="s">
         <v>278</v>
@@ -3739,21 +3748,21 @@
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F87" t="s">
         <v>293</v>
       </c>
       <c r="G87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B88" t="s">
         <v>278</v>
@@ -3765,33 +3774,33 @@
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F88" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B89" t="s">
         <v>278</v>
       </c>
       <c r="C89" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D89" t="s">
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F89" t="s">
         <v>292</v>
@@ -3800,12 +3809,12 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B90" t="s">
         <v>278</v>
@@ -3817,7 +3826,7 @@
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F90" t="s">
         <v>292</v>
@@ -3826,15 +3835,15 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B91" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="C91" t="s">
         <v>287</v>
@@ -3843,85 +3852,85 @@
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F91" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="B92" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="C92" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="D92" t="s">
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="F92" t="s">
         <v>293</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B93" t="s">
         <v>278</v>
       </c>
       <c r="C93" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="D93" t="s">
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F93" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G93">
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="B94" t="s">
         <v>278</v>
       </c>
       <c r="C94" t="s">
-        <v>300</v>
+        <v>36</v>
       </c>
       <c r="D94" t="s">
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="F94" t="s">
         <v>292</v>
@@ -3930,12 +3939,12 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B95" t="s">
         <v>278</v>
@@ -3947,24 +3956,24 @@
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F95" t="s">
         <v>292</v>
       </c>
       <c r="G95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B96" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="C96" t="s">
         <v>300</v>
@@ -3973,15 +3982,41 @@
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F96" t="s">
         <v>292</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>302</v>
+      </c>
+      <c r="B97" t="s">
+        <v>295</v>
+      </c>
+      <c r="C97" t="s">
+        <v>300</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>305</v>
+      </c>
+      <c r="F97" t="s">
+        <v>292</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="I97" t="s">
         <v>307</v>
       </c>
     </row>

--- a/BOM/Printed Part List.xlsx
+++ b/BOM/Printed Part List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551003AF-69E0-48E1-8BEC-8AAE4F0E4910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A524F4CD-6EC6-4A76-A7B7-E62FBD692993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27600" yWindow="3060" windowWidth="23250" windowHeight="12480" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
+    <workbookView xWindow="-27255" yWindow="3405" windowWidth="23250" windowHeight="12480" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
   </bookViews>
   <sheets>
     <sheet name="000 - Printed Parts" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="332">
   <si>
     <t>Component</t>
   </si>
@@ -1012,6 +1012,24 @@
   </si>
   <si>
     <t>89 - XY - Motion - Stepper Alignment Slider.stl</t>
+  </si>
+  <si>
+    <t>PN120</t>
+  </si>
+  <si>
+    <t>Exterior PTFE Coupler</t>
+  </si>
+  <si>
+    <t>120 - Exterior - Frame - Exterior PTFE Coupler.stl</t>
+  </si>
+  <si>
+    <t>PN121</t>
+  </si>
+  <si>
+    <t>Exhaust Hose Coupler</t>
+  </si>
+  <si>
+    <t>121 - Exterior - Frame - Exhaust Hose Coupler.stl</t>
   </si>
 </sst>
 </file>
@@ -1078,8 +1096,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F341AE2-224B-4051-B04D-BA10CC5651EC}" name="Table1" displayName="Table1" ref="A1:I97" totalsRowShown="0">
-  <autoFilter ref="A1:I97" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F341AE2-224B-4051-B04D-BA10CC5651EC}" name="Table1" displayName="Table1" ref="A1:I99" totalsRowShown="0">
+  <autoFilter ref="A1:I99" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I86">
     <sortCondition ref="A1:A86"/>
   </sortState>
@@ -1395,10 +1413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC8DB31-6D45-4FED-94B6-5390BD4B0F2C}">
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3736,59 +3754,59 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>275</v>
+        <v>326</v>
       </c>
       <c r="B87" t="s">
-        <v>278</v>
+        <v>127</v>
       </c>
       <c r="C87" t="s">
-        <v>281</v>
+        <v>38</v>
       </c>
       <c r="D87" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E87" t="s">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="F87" t="s">
-        <v>293</v>
+        <v>53</v>
       </c>
       <c r="G87">
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>282</v>
+        <v>328</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>276</v>
+        <v>329</v>
       </c>
       <c r="B88" t="s">
-        <v>278</v>
+        <v>127</v>
       </c>
       <c r="C88" t="s">
-        <v>281</v>
+        <v>38</v>
       </c>
       <c r="D88" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E88" t="s">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="F88" t="s">
-        <v>293</v>
+        <v>53</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>283</v>
+        <v>331</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B89" t="s">
         <v>278</v>
@@ -3800,59 +3818,59 @@
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F89" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G89">
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B90" t="s">
         <v>278</v>
       </c>
       <c r="C90" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D90" t="s">
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F90" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="B91" t="s">
         <v>278</v>
       </c>
       <c r="C91" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D91" t="s">
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F91" t="s">
         <v>292</v>
@@ -3861,15 +3879,15 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="B92" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="C92" t="s">
         <v>287</v>
@@ -3878,73 +3896,73 @@
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F92" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="B93" t="s">
         <v>278</v>
       </c>
       <c r="C93" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="D93" t="s">
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="F93" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G93">
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="B94" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="C94" t="s">
-        <v>36</v>
+        <v>287</v>
       </c>
       <c r="D94" t="s">
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="F94" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="B95" t="s">
         <v>278</v>
@@ -3956,50 +3974,50 @@
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="F95" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G95">
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="B96" t="s">
         <v>278</v>
       </c>
       <c r="C96" t="s">
-        <v>300</v>
+        <v>36</v>
       </c>
       <c r="D96" t="s">
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="F96" t="s">
         <v>292</v>
       </c>
       <c r="G96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B97" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="C97" t="s">
         <v>300</v>
@@ -4008,7 +4026,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F97" t="s">
         <v>292</v>
@@ -4017,6 +4035,58 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>301</v>
+      </c>
+      <c r="B98" t="s">
+        <v>278</v>
+      </c>
+      <c r="C98" t="s">
+        <v>300</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>303</v>
+      </c>
+      <c r="F98" t="s">
+        <v>292</v>
+      </c>
+      <c r="G98">
+        <v>2</v>
+      </c>
+      <c r="I98" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>302</v>
+      </c>
+      <c r="B99" t="s">
+        <v>295</v>
+      </c>
+      <c r="C99" t="s">
+        <v>300</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>305</v>
+      </c>
+      <c r="F99" t="s">
+        <v>292</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="I99" t="s">
         <v>307</v>
       </c>
     </row>

--- a/BOM/Printed Part List.xlsx
+++ b/BOM/Printed Part List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A524F4CD-6EC6-4A76-A7B7-E62FBD692993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CE9F7F-7101-4071-A4F5-845F949C4F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27255" yWindow="3405" windowWidth="23250" windowHeight="12480" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
   </bookViews>
@@ -324,9 +324,6 @@
     <t>91 - Misc - Limit Switch Cap.stl</t>
   </si>
   <si>
-    <t>92 - Misc - Frame Base Foot (TPU).stl</t>
-  </si>
-  <si>
     <t>93 - XY - Motion - X Limit Switch Mount.stl</t>
   </si>
   <si>
@@ -618,9 +615,6 @@
     <t>Corner Bracket Cover</t>
   </si>
   <si>
-    <t>90 - Misc - Corner Bracket Cover.stl</t>
-  </si>
-  <si>
     <t>PN090</t>
   </si>
   <si>
@@ -1030,6 +1024,12 @@
   </si>
   <si>
     <t>121 - Exterior - Frame - Exhaust Hose Coupler.stl</t>
+  </si>
+  <si>
+    <t>90 - Misc - Frame - Corner Bracket Cover.stl</t>
+  </si>
+  <si>
+    <t>92 - Exterior - Frame - Base Foot (TPU).stl</t>
   </si>
 </sst>
 </file>
@@ -1415,8 +1415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC8DB31-6D45-4FED-94B6-5390BD4B0F2C}">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -1723,7 +1723,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -1839,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F16" t="s">
         <v>35</v>
@@ -1848,15 +1848,15 @@
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -1963,7 +1963,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -2171,7 +2171,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B31" t="s">
         <v>23</v>
@@ -2246,12 +2246,12 @@
       </c>
       <c r="H31" s="1"/>
       <c r="I31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B32" t="s">
         <v>23</v>
@@ -2273,12 +2273,12 @@
       </c>
       <c r="H32" s="1"/>
       <c r="I32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B33" t="s">
         <v>23</v>
@@ -2300,12 +2300,12 @@
       </c>
       <c r="H33" s="1"/>
       <c r="I33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B34" t="s">
         <v>23</v>
@@ -2327,12 +2327,12 @@
       </c>
       <c r="H34" s="1"/>
       <c r="I34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B35" t="s">
         <v>23</v>
@@ -2344,7 +2344,7 @@
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F35" t="s">
         <v>53</v>
@@ -2353,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I35" t="s">
         <v>90</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B36" t="s">
         <v>23</v>
@@ -2373,7 +2373,7 @@
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F36" t="s">
         <v>53</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I36" t="s">
         <v>91</v>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B37" t="s">
         <v>23</v>
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F37" t="s">
         <v>53</v>
@@ -2411,15 +2411,15 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I37" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B38" t="s">
         <v>23</v>
@@ -2440,15 +2440,15 @@
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B39" t="s">
         <v>23</v>
@@ -2469,15 +2469,15 @@
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B40" t="s">
         <v>23</v>
@@ -2498,15 +2498,15 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B41" t="s">
         <v>23</v>
@@ -2527,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I41" t="s">
         <v>92</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B42" t="s">
         <v>23</v>
@@ -2556,7 +2556,7 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I42" t="s">
         <v>93</v>
@@ -2564,7 +2564,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B43" t="s">
         <v>48</v>
@@ -2585,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I43" t="s">
         <v>94</v>
@@ -2593,19 +2593,19 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D44" t="s">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F44" t="s">
         <v>53</v>
@@ -2614,21 +2614,21 @@
         <v>1</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I44" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B45" t="s">
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D45" t="s">
         <v>1</v>
@@ -2644,18 +2644,18 @@
       </c>
       <c r="H45" s="1"/>
       <c r="I45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B46" t="s">
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D46" t="s">
         <v>1</v>
@@ -2670,85 +2670,85 @@
         <v>1</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" t="s">
         <v>98</v>
-      </c>
-      <c r="C47" t="s">
-        <v>99</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
       </c>
       <c r="E47" t="s">
+        <v>99</v>
+      </c>
+      <c r="F47" t="s">
+        <v>53</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
         <v>100</v>
       </c>
-      <c r="F47" t="s">
-        <v>53</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>101</v>
-      </c>
-      <c r="I47" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="s">
         <v>98</v>
-      </c>
-      <c r="C48" t="s">
-        <v>99</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
       </c>
       <c r="E48" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" t="s">
+        <v>53</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
         <v>100</v>
       </c>
-      <c r="F48" t="s">
-        <v>53</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48" t="s">
-        <v>101</v>
-      </c>
       <c r="I48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" t="s">
         <v>98</v>
-      </c>
-      <c r="C49" t="s">
-        <v>99</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F49" t="s">
         <v>53</v>
@@ -2757,24 +2757,24 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" t="s">
         <v>98</v>
-      </c>
-      <c r="C50" t="s">
-        <v>99</v>
       </c>
       <c r="D50" t="s">
         <v>5</v>
       </c>
       <c r="E50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F50" t="s">
         <v>53</v>
@@ -2783,24 +2783,24 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B51" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" t="s">
         <v>98</v>
-      </c>
-      <c r="C51" t="s">
-        <v>99</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F51" t="s">
         <v>53</v>
@@ -2809,27 +2809,27 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" t="s">
         <v>98</v>
-      </c>
-      <c r="C52" t="s">
-        <v>99</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F52" t="s">
         <v>53</v>
@@ -2838,18 +2838,18 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C53" t="s">
         <v>47</v>
@@ -2858,7 +2858,7 @@
         <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F53" t="s">
         <v>53</v>
@@ -2867,15 +2867,15 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C54" t="s">
         <v>47</v>
@@ -2884,24 +2884,24 @@
         <v>9</v>
       </c>
       <c r="E54" t="s">
+        <v>112</v>
+      </c>
+      <c r="F54" t="s">
+        <v>53</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
         <v>113</v>
-      </c>
-      <c r="F54" t="s">
-        <v>53</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="I54" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C55" t="s">
         <v>47</v>
@@ -2910,7 +2910,7 @@
         <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F55" t="s">
         <v>53</v>
@@ -2919,15 +2919,15 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C56" t="s">
         <v>47</v>
@@ -2936,7 +2936,7 @@
         <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F56" t="s">
         <v>53</v>
@@ -2945,15 +2945,15 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C57" t="s">
         <v>47</v>
@@ -2962,7 +2962,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F57" t="s">
         <v>53</v>
@@ -2971,44 +2971,44 @@
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C58" t="s">
+        <v>119</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>121</v>
+      </c>
+      <c r="F58" t="s">
+        <v>53</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>252</v>
+      </c>
+      <c r="I58" t="s">
         <v>120</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1</v>
-      </c>
-      <c r="E58" t="s">
-        <v>122</v>
-      </c>
-      <c r="F58" t="s">
-        <v>53</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58" t="s">
-        <v>254</v>
-      </c>
-      <c r="I58" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C59" t="s">
         <v>47</v>
@@ -3017,24 +3017,24 @@
         <v>5</v>
       </c>
       <c r="E59" t="s">
+        <v>122</v>
+      </c>
+      <c r="F59" t="s">
+        <v>53</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
         <v>123</v>
-      </c>
-      <c r="F59" t="s">
-        <v>53</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="I59" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C60" t="s">
         <v>47</v>
@@ -3043,7 +3043,7 @@
         <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F60" t="s">
         <v>53</v>
@@ -3052,15 +3052,15 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C61" t="s">
         <v>47</v>
@@ -3069,7 +3069,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F61" t="s">
         <v>53</v>
@@ -3078,15 +3078,15 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C62" t="s">
         <v>47</v>
@@ -3095,7 +3095,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F62" t="s">
         <v>53</v>
@@ -3104,70 +3104,70 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C63" t="s">
+        <v>163</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
         <v>164</v>
       </c>
-      <c r="D63" t="s">
-        <v>1</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
+        <v>53</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
+        <v>155</v>
+      </c>
+      <c r="I63" t="s">
         <v>165</v>
-      </c>
-      <c r="F63" t="s">
-        <v>53</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-      <c r="H63" t="s">
-        <v>156</v>
-      </c>
-      <c r="I63" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>313</v>
+      </c>
+      <c r="B64" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" t="s">
+        <v>163</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>314</v>
+      </c>
+      <c r="F64" t="s">
+        <v>53</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
         <v>315</v>
       </c>
-      <c r="B64" t="s">
-        <v>98</v>
-      </c>
-      <c r="C64" t="s">
-        <v>164</v>
-      </c>
-      <c r="D64" t="s">
-        <v>1</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="I64" t="s">
         <v>316</v>
-      </c>
-      <c r="F64" t="s">
-        <v>53</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-      <c r="H64" t="s">
-        <v>317</v>
-      </c>
-      <c r="I64" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B65" t="s">
         <v>4</v>
@@ -3179,7 +3179,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F65" t="s">
         <v>35</v>
@@ -3188,12 +3188,12 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B66" t="s">
         <v>36</v>
@@ -3205,7 +3205,7 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F66" t="s">
         <v>53</v>
@@ -3214,12 +3214,12 @@
         <v>58</v>
       </c>
       <c r="I66" t="s">
-        <v>194</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B67" t="s">
         <v>36</v>
@@ -3240,7 +3240,7 @@
         <v>5</v>
       </c>
       <c r="H67" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I67" t="s">
         <v>95</v>
@@ -3248,10 +3248,10 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B68" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="C68" t="s">
         <v>38</v>
@@ -3269,15 +3269,15 @@
         <v>4</v>
       </c>
       <c r="H68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I68" t="s">
-        <v>96</v>
+        <v>331</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B69" t="s">
         <v>4</v>
@@ -3298,12 +3298,12 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B70" t="s">
         <v>36</v>
@@ -3315,7 +3315,7 @@
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F70" t="s">
         <v>53</v>
@@ -3324,18 +3324,18 @@
         <v>2</v>
       </c>
       <c r="H70" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I70" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B71" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C71" t="s">
         <v>38</v>
@@ -3344,30 +3344,30 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F71" t="s">
         <v>53</v>
       </c>
       <c r="I71" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B72" t="s">
         <v>36</v>
       </c>
       <c r="C72" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D72" t="s">
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F72" t="s">
         <v>53</v>
@@ -3376,12 +3376,12 @@
         <v>16</v>
       </c>
       <c r="I72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B73" t="s">
         <v>36</v>
@@ -3393,44 +3393,44 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F73" t="s">
         <v>53</v>
       </c>
       <c r="I73" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B74" t="s">
         <v>36</v>
       </c>
       <c r="C74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D74" t="s">
         <v>1</v>
       </c>
       <c r="E74" t="s">
+        <v>117</v>
+      </c>
+      <c r="F74" t="s">
+        <v>53</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
         <v>118</v>
-      </c>
-      <c r="F74" t="s">
-        <v>53</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="I74" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B75" t="s">
         <v>4</v>
@@ -3442,7 +3442,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F75" t="s">
         <v>53</v>
@@ -3451,24 +3451,24 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B76" t="s">
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D76" t="s">
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F76" t="s">
         <v>53</v>
@@ -3477,24 +3477,24 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B77" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" t="s">
         <v>127</v>
       </c>
-      <c r="C77" t="s">
-        <v>128</v>
-      </c>
       <c r="D77" t="s">
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F77" t="s">
         <v>53</v>
@@ -3503,24 +3503,24 @@
         <v>3</v>
       </c>
       <c r="I77" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B78" t="s">
+        <v>126</v>
+      </c>
+      <c r="C78" t="s">
         <v>127</v>
       </c>
-      <c r="C78" t="s">
-        <v>128</v>
-      </c>
       <c r="D78" t="s">
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F78" t="s">
         <v>53</v>
@@ -3529,140 +3529,140 @@
         <v>3</v>
       </c>
       <c r="I78" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B79" t="s">
+        <v>126</v>
+      </c>
+      <c r="C79" t="s">
         <v>127</v>
-      </c>
-      <c r="C79" t="s">
-        <v>128</v>
       </c>
       <c r="D79" t="s">
         <v>5</v>
       </c>
       <c r="E79" t="s">
+        <v>128</v>
+      </c>
+      <c r="F79" t="s">
+        <v>53</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79" t="s">
+        <v>268</v>
+      </c>
+      <c r="I79" t="s">
         <v>129</v>
-      </c>
-      <c r="F79" t="s">
-        <v>53</v>
-      </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="H79" t="s">
-        <v>270</v>
-      </c>
-      <c r="I79" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B80" t="s">
+        <v>126</v>
+      </c>
+      <c r="C80" t="s">
         <v>127</v>
-      </c>
-      <c r="C80" t="s">
-        <v>128</v>
       </c>
       <c r="D80" t="s">
         <v>9</v>
       </c>
       <c r="E80" t="s">
+        <v>130</v>
+      </c>
+      <c r="F80" t="s">
+        <v>53</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>138</v>
+      </c>
+      <c r="I80" t="s">
         <v>131</v>
-      </c>
-      <c r="F80" t="s">
-        <v>53</v>
-      </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80" t="s">
-        <v>139</v>
-      </c>
-      <c r="I80" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B81" t="s">
+        <v>126</v>
+      </c>
+      <c r="C81" t="s">
         <v>127</v>
-      </c>
-      <c r="C81" t="s">
-        <v>128</v>
       </c>
       <c r="D81" t="s">
         <v>5</v>
       </c>
       <c r="E81" t="s">
+        <v>132</v>
+      </c>
+      <c r="F81" t="s">
+        <v>53</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>269</v>
+      </c>
+      <c r="I81" t="s">
         <v>133</v>
-      </c>
-      <c r="F81" t="s">
-        <v>53</v>
-      </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-      <c r="H81" t="s">
-        <v>271</v>
-      </c>
-      <c r="I81" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B82" t="s">
+        <v>126</v>
+      </c>
+      <c r="C82" t="s">
         <v>127</v>
-      </c>
-      <c r="C82" t="s">
-        <v>128</v>
       </c>
       <c r="D82" t="s">
         <v>9</v>
       </c>
       <c r="E82" t="s">
+        <v>134</v>
+      </c>
+      <c r="F82" t="s">
+        <v>53</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82" t="s">
+        <v>270</v>
+      </c>
+      <c r="I82" t="s">
         <v>135</v>
-      </c>
-      <c r="F82" t="s">
-        <v>53</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-      <c r="H82" t="s">
-        <v>272</v>
-      </c>
-      <c r="I82" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B83" t="s">
+        <v>126</v>
+      </c>
+      <c r="C83" t="s">
         <v>127</v>
       </c>
-      <c r="C83" t="s">
-        <v>128</v>
-      </c>
       <c r="D83" t="s">
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F83" t="s">
         <v>53</v>
@@ -3671,50 +3671,50 @@
         <v>4</v>
       </c>
       <c r="I83" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B84" t="s">
+        <v>126</v>
+      </c>
+      <c r="C84" t="s">
         <v>127</v>
       </c>
-      <c r="C84" t="s">
-        <v>128</v>
-      </c>
       <c r="D84" t="s">
         <v>1</v>
       </c>
       <c r="E84" t="s">
+        <v>161</v>
+      </c>
+      <c r="F84" t="s">
+        <v>53</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="I84" t="s">
         <v>162</v>
-      </c>
-      <c r="F84" t="s">
-        <v>53</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-      <c r="I84" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B85" t="s">
+        <v>126</v>
+      </c>
+      <c r="C85" t="s">
         <v>127</v>
       </c>
-      <c r="C85" t="s">
-        <v>128</v>
-      </c>
       <c r="D85" t="s">
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F85" t="s">
         <v>53</v>
@@ -3723,41 +3723,41 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B86" t="s">
+        <v>126</v>
+      </c>
+      <c r="C86" t="s">
         <v>127</v>
       </c>
-      <c r="C86" t="s">
-        <v>128</v>
-      </c>
       <c r="D86" t="s">
         <v>1</v>
       </c>
       <c r="E86" t="s">
+        <v>157</v>
+      </c>
+      <c r="F86" t="s">
+        <v>53</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="I86" t="s">
         <v>158</v>
-      </c>
-      <c r="F86" t="s">
-        <v>53</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-      <c r="I86" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B87" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C87" t="s">
         <v>38</v>
@@ -3766,7 +3766,7 @@
         <v>9</v>
       </c>
       <c r="E87" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F87" t="s">
         <v>53</v>
@@ -3775,15 +3775,15 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B88" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C88" t="s">
         <v>38</v>
@@ -3792,7 +3792,7 @@
         <v>5</v>
       </c>
       <c r="E88" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F88" t="s">
         <v>53</v>
@@ -3801,197 +3801,197 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B89" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C89" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D89" t="s">
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F89" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G89">
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>274</v>
+      </c>
+      <c r="B90" t="s">
         <v>276</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
+        <v>279</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
         <v>278</v>
       </c>
-      <c r="C90" t="s">
-        <v>281</v>
-      </c>
-      <c r="D90" t="s">
-        <v>1</v>
-      </c>
-      <c r="E90" t="s">
-        <v>280</v>
-      </c>
       <c r="F90" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G90">
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B91" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C91" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D91" t="s">
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F91" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G91">
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>284</v>
+      </c>
+      <c r="B92" t="s">
+        <v>276</v>
+      </c>
+      <c r="C92" t="s">
+        <v>285</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
         <v>286</v>
       </c>
-      <c r="B92" t="s">
-        <v>278</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="F92" t="s">
+        <v>290</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="I92" t="s">
         <v>287</v>
-      </c>
-      <c r="D92" t="s">
-        <v>1</v>
-      </c>
-      <c r="E92" t="s">
-        <v>288</v>
-      </c>
-      <c r="F92" t="s">
-        <v>292</v>
-      </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-      <c r="I92" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>288</v>
+      </c>
+      <c r="B93" t="s">
+        <v>276</v>
+      </c>
+      <c r="C93" t="s">
+        <v>285</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>289</v>
+      </c>
+      <c r="F93" t="s">
         <v>290</v>
       </c>
-      <c r="B93" t="s">
-        <v>278</v>
-      </c>
-      <c r="C93" t="s">
-        <v>287</v>
-      </c>
-      <c r="D93" t="s">
-        <v>1</v>
-      </c>
-      <c r="E93" t="s">
-        <v>291</v>
-      </c>
-      <c r="F93" t="s">
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="I93" t="s">
         <v>292</v>
-      </c>
-      <c r="G93">
-        <v>1</v>
-      </c>
-      <c r="I93" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B94" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C94" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D94" t="s">
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F94" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G94">
         <v>2</v>
       </c>
       <c r="I94" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>307</v>
+      </c>
+      <c r="B95" t="s">
+        <v>276</v>
+      </c>
+      <c r="C95" t="s">
+        <v>298</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>308</v>
+      </c>
+      <c r="F95" t="s">
+        <v>291</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="I95" t="s">
         <v>309</v>
-      </c>
-      <c r="B95" t="s">
-        <v>278</v>
-      </c>
-      <c r="C95" t="s">
-        <v>300</v>
-      </c>
-      <c r="D95" t="s">
-        <v>1</v>
-      </c>
-      <c r="E95" t="s">
-        <v>310</v>
-      </c>
-      <c r="F95" t="s">
-        <v>293</v>
-      </c>
-      <c r="G95">
-        <v>1</v>
-      </c>
-      <c r="I95" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B96" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C96" t="s">
         <v>36</v>
@@ -4000,94 +4000,94 @@
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F96" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G96">
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B97" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C97" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D97" t="s">
         <v>1</v>
       </c>
       <c r="E97" t="s">
+        <v>302</v>
+      </c>
+      <c r="F97" t="s">
+        <v>290</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="I97" t="s">
         <v>304</v>
-      </c>
-      <c r="F97" t="s">
-        <v>292</v>
-      </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-      <c r="I97" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>299</v>
+      </c>
+      <c r="B98" t="s">
+        <v>276</v>
+      </c>
+      <c r="C98" t="s">
+        <v>298</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
         <v>301</v>
       </c>
-      <c r="B98" t="s">
-        <v>278</v>
-      </c>
-      <c r="C98" t="s">
-        <v>300</v>
-      </c>
-      <c r="D98" t="s">
-        <v>1</v>
-      </c>
-      <c r="E98" t="s">
-        <v>303</v>
-      </c>
       <c r="F98" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G98">
         <v>2</v>
       </c>
       <c r="I98" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B99" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C99" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D99" t="s">
         <v>1</v>
       </c>
       <c r="E99" t="s">
+        <v>303</v>
+      </c>
+      <c r="F99" t="s">
+        <v>290</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="I99" t="s">
         <v>305</v>
-      </c>
-      <c r="F99" t="s">
-        <v>292</v>
-      </c>
-      <c r="G99">
-        <v>1</v>
-      </c>
-      <c r="I99" t="s">
-        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/BOM/Printed Part List.xlsx
+++ b/BOM/Printed Part List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CE9F7F-7101-4071-A4F5-845F949C4F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE20833-40FD-43F5-B286-C56F64526A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27255" yWindow="3405" windowWidth="23250" windowHeight="12480" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="330">
   <si>
     <t>Component</t>
   </si>
@@ -222,111 +222,6 @@
     <t>Lower Rail Bracket</t>
   </si>
   <si>
-    <t>01 - XY - Pulleys - L Bottom.stl</t>
-  </si>
-  <si>
-    <t>02 - XY - Pulleys - L Top.stl</t>
-  </si>
-  <si>
-    <t>05 - XY - XY Joint - L Top.stl</t>
-  </si>
-  <si>
-    <t>06 - XY - XY Joint - L Mid.stl</t>
-  </si>
-  <si>
-    <t>07 - XY - XY Joint - L Bottom.stl</t>
-  </si>
-  <si>
-    <t>03 - XY - Pulleys - R Bottom.stl</t>
-  </si>
-  <si>
-    <t>04 - XY - Pulleys - R Top.stl</t>
-  </si>
-  <si>
-    <t>08 - XY - XY Joint - R Top.stl</t>
-  </si>
-  <si>
-    <t>09 - XY - XY Joint - R Mid.stl</t>
-  </si>
-  <si>
-    <t>10 - XY - XY Joint - R Bottom.stl</t>
-  </si>
-  <si>
-    <t>11 - XY - Tensioner - Bolt Receiver.stl</t>
-  </si>
-  <si>
-    <t>12 - XY - Tensioner - Idler Seat.stl</t>
-  </si>
-  <si>
-    <t>13 - XY - Tensioner - Tensioner Cap.stl</t>
-  </si>
-  <si>
-    <t>14 - XY - Tensioner - Guide Frame.stl</t>
-  </si>
-  <si>
-    <t>16 - XY - Steppers - Stepper Mount.stl</t>
-  </si>
-  <si>
-    <t>17 - XY - Motion - L Y Axis Rail Guide.stl</t>
-  </si>
-  <si>
-    <t>18 - XY - Motion - R Y Axis Rail Guide.stl</t>
-  </si>
-  <si>
-    <t>19 - Z - Motion - Lower Rail Bracket.stl</t>
-  </si>
-  <si>
-    <t>20 - Z - Bed - Corner Bracket.stl</t>
-  </si>
-  <si>
-    <t>21 - Z - Motion - L Gantry.stl</t>
-  </si>
-  <si>
-    <t>22 - Z - Motion - R Gantry.stl</t>
-  </si>
-  <si>
-    <t>23 - Z - Steppers - L Stepper Mount.stl</t>
-  </si>
-  <si>
-    <t>24 - Z - Steppers - R Stepper Mount.stl</t>
-  </si>
-  <si>
-    <t>25 - Z - Motion - L Z1 Limit Switch.stl</t>
-  </si>
-  <si>
-    <t>26 - Z - Motion - R Z2 Limit Switch.stl</t>
-  </si>
-  <si>
-    <t>27 - Z - Motion - L Lead Screw Plate.stl</t>
-  </si>
-  <si>
-    <t>28 - Z - Motion - R Lead Screw Plate.stl</t>
-  </si>
-  <si>
-    <t>29 - Z - Bed - Wire Support.stl</t>
-  </si>
-  <si>
-    <t>34 - Gantry - Carriage - L Belt Clamp.stl</t>
-  </si>
-  <si>
-    <t>35 - Gantry - Carriage - R Belt Clamp.stl</t>
-  </si>
-  <si>
-    <t>44 - Gantry - Hotend  - EVA Duct.stl</t>
-  </si>
-  <si>
-    <t>45 - Gantry - Hotend - Fan Mount.stl</t>
-  </si>
-  <si>
-    <t>51 - ABL - Mount - BLTouch.stl</t>
-  </si>
-  <si>
-    <t>91 - Misc - Limit Switch Cap.stl</t>
-  </si>
-  <si>
-    <t>93 - XY - Motion - X Limit Switch Mount.stl</t>
-  </si>
-  <si>
     <t>Electrical</t>
   </si>
   <si>
@@ -339,78 +234,33 @@
     <t>JST-SM connector panel</t>
   </si>
   <si>
-    <t>70 - Electrical - Wiring - R Panel Plate.stl</t>
-  </si>
-  <si>
-    <t>71 - Electrical - Wiring - L Panel Plate.stl</t>
-  </si>
-  <si>
     <t>Panel Mount</t>
   </si>
   <si>
     <t>Panel Faceplate</t>
   </si>
   <si>
-    <t>72 - Electrical - Wiring - R Panel Mount.stl</t>
-  </si>
-  <si>
-    <t>73 - Electrical - Wiring - L Panel Mount.stl</t>
-  </si>
-  <si>
-    <t>74 - Electrical - Wiring - R Panel Faceplate.stl</t>
-  </si>
-  <si>
-    <t>75 - Electrical - Wiring - L Panel Faceplate.stl</t>
-  </si>
-  <si>
     <t>SKR Board Tray</t>
   </si>
   <si>
-    <t>96 - Misc - Wiring - T Slot Wire Anchor.stl</t>
-  </si>
-  <si>
     <t>T Slot Wire Anchor</t>
   </si>
   <si>
     <t>Octopus Board Mount</t>
   </si>
   <si>
-    <t>77 - Electrical - Mount - R Octopus Board Mount.stl</t>
-  </si>
-  <si>
-    <t>76 - Electrical - Mount - L Octopus Board Mount.stl</t>
-  </si>
-  <si>
-    <t>78 - Electrical - Mount - L SKR Board Mount.stl</t>
-  </si>
-  <si>
-    <t>79 - Electrical - Mount - R SKR Board Mount.stl</t>
-  </si>
-  <si>
     <t>PTFE Tube Coupler</t>
   </si>
   <si>
-    <t>98 - Misc - Wiring - PTFE Tube Coupler.stl</t>
-  </si>
-  <si>
     <t>Lighting</t>
   </si>
   <si>
-    <t>82 - Electrical - Lighting - LED Guide, 12mm.stl</t>
-  </si>
-  <si>
     <t>LED Guide, 12mm</t>
   </si>
   <si>
     <t>RPi Board Mount</t>
   </si>
   <si>
-    <t>83 - Electrical - Mount - L RPi Board Mount.stl</t>
-  </si>
-  <si>
-    <t>84 - Electrical - Mount - R RPi Board Mount.stl</t>
-  </si>
-  <si>
     <t>5A Buck Mount</t>
   </si>
   <si>
@@ -456,51 +306,18 @@
     <t>PSU Mount</t>
   </si>
   <si>
-    <t>86 - Electrical - Mount - PSU Mount.stl</t>
-  </si>
-  <si>
     <t>Mounting Bracket</t>
   </si>
   <si>
-    <t>41 - Gantry - Hotend - Locking Collar.stl</t>
-  </si>
-  <si>
-    <t>42 - Gantry - Hotend - Fan Intake.stl</t>
-  </si>
-  <si>
-    <t>43 - Gantry - Hotend - PTFE Collar (TPU).stl</t>
-  </si>
-  <si>
-    <t>31 - Gantry - Carriage - Top Mount.stl</t>
-  </si>
-  <si>
-    <t>30 - Gantry - Carriage - Carriage Mount.stl</t>
-  </si>
-  <si>
-    <t>32 - Gantry - Carriage - Back Mount.stl</t>
-  </si>
-  <si>
-    <t>33 - Gantry - Carriage - Front Mount.stl</t>
-  </si>
-  <si>
-    <t>61 - Extruder - DD - BMG Mount.stl</t>
-  </si>
-  <si>
     <t>DD</t>
   </si>
   <si>
     <t>Bowden</t>
   </si>
   <si>
-    <t>62 - Extruder - Bowden - BMG Mount.stl</t>
-  </si>
-  <si>
     <t>Vibration Damper</t>
   </si>
   <si>
-    <t>15 - XY - Steppers - Vibration Damper (TPU).stl</t>
-  </si>
-  <si>
     <t>No ID tag</t>
   </si>
   <si>
@@ -531,12 +348,6 @@
     <t>Camera Mount</t>
   </si>
   <si>
-    <t>87 - Electrical - Camera - Camera Mount.stl</t>
-  </si>
-  <si>
-    <t>MIsc</t>
-  </si>
-  <si>
     <t>PN016</t>
   </si>
   <si>
@@ -618,9 +429,6 @@
     <t>PN090</t>
   </si>
   <si>
-    <t>94 - Misc - Tools - Gantry Service Bar.stl</t>
-  </si>
-  <si>
     <t>Gantry Service Bar</t>
   </si>
   <si>
@@ -633,24 +441,9 @@
     <t>PN099</t>
   </si>
   <si>
-    <t>97 - Misc - Frame -  Panel Mount Point, Double.stl</t>
-  </si>
-  <si>
-    <t>95 - Misc - Frame - Panel Mount Point, Single.stl</t>
-  </si>
-  <si>
-    <t>Panel Mount Point, Single</t>
-  </si>
-  <si>
     <t>PN095</t>
   </si>
   <si>
-    <t>Panel Mount Point, Double</t>
-  </si>
-  <si>
-    <t>PN097</t>
-  </si>
-  <si>
     <t>PN098</t>
   </si>
   <si>
@@ -663,9 +456,6 @@
     <t>PN085</t>
   </si>
   <si>
-    <t>85 - Electrical - Mount - Buck Converter Mount, DROK 5A.stl</t>
-  </si>
-  <si>
     <t>PN087</t>
   </si>
   <si>
@@ -762,30 +552,15 @@
     <t>Belt Clamp</t>
   </si>
   <si>
-    <t>PN080</t>
-  </si>
-  <si>
-    <t>Parametric, defaults provided</t>
-  </si>
-  <si>
-    <t>Parametric T Slot Cap</t>
-  </si>
-  <si>
     <t>PN042</t>
   </si>
   <si>
-    <t>40 - Gantry - Hotend - Mounting Bracket.stl</t>
-  </si>
-  <si>
     <t>PN040</t>
   </si>
   <si>
     <t>PN041</t>
   </si>
   <si>
-    <t>60 - Extruder - Bowden - Hotend Adapter.stl</t>
-  </si>
-  <si>
     <t>Hotend Adapter</t>
   </si>
   <si>
@@ -984,12 +759,6 @@
     <t>Optional</t>
   </si>
   <si>
-    <t>88 - Electrical - Camera - Camera Stand.stl</t>
-  </si>
-  <si>
-    <t>99 - XY - Motion - Y Axis Front Rail Guide.stl</t>
-  </si>
-  <si>
     <t>PN100</t>
   </si>
   <si>
@@ -999,15 +768,6 @@
     <t>100 - XY - Wiring - Rear PTFE Tube Guide.stl</t>
   </si>
   <si>
-    <t>PN089</t>
-  </si>
-  <si>
-    <t>Stepper Alignment Slider</t>
-  </si>
-  <si>
-    <t>89 - XY - Motion - Stepper Alignment Slider.stl</t>
-  </si>
-  <si>
     <t>PN120</t>
   </si>
   <si>
@@ -1026,10 +786,244 @@
     <t>121 - Exterior - Frame - Exhaust Hose Coupler.stl</t>
   </si>
   <si>
-    <t>90 - Misc - Frame - Corner Bracket Cover.stl</t>
-  </si>
-  <si>
-    <t>92 - Exterior - Frame - Base Foot (TPU).stl</t>
+    <t>PN122</t>
+  </si>
+  <si>
+    <t>PTFE Coupling Guide</t>
+  </si>
+  <si>
+    <t>122 - Exterior - Frame - PTFE Coupling Guide.stl</t>
+  </si>
+  <si>
+    <t>Bearing Alignment Slider</t>
+  </si>
+  <si>
+    <t>PN123</t>
+  </si>
+  <si>
+    <t>Z Slider Mount</t>
+  </si>
+  <si>
+    <t>123 - Misc - Motion - L Z Slider Mount.stl</t>
+  </si>
+  <si>
+    <t>PN124</t>
+  </si>
+  <si>
+    <t>124 - Misc - Motion - R Z Slider Mount.stl</t>
+  </si>
+  <si>
+    <t>095 - Misc - Motion - Bearing Alignment Slider.stl</t>
+  </si>
+  <si>
+    <t>096 - Misc - Wiring - T Slot Wire Anchor.stl</t>
+  </si>
+  <si>
+    <t>098 - Misc - Wiring - PTFE Tube Coupler.stl</t>
+  </si>
+  <si>
+    <t>099 - XY - Motion - Y Axis Front Rail Guide.stl</t>
+  </si>
+  <si>
+    <t>094 - Misc - Tools - Gantry Service Bar.stl</t>
+  </si>
+  <si>
+    <t>093 - XY - Motion - X Limit Switch Mount.stl</t>
+  </si>
+  <si>
+    <t>092 - Exterior - Frame - Base Foot (TPU).stl</t>
+  </si>
+  <si>
+    <t>091 - Misc - Limit Switch Cap.stl</t>
+  </si>
+  <si>
+    <t>090 - Misc - Frame - Corner Bracket Cover.stl</t>
+  </si>
+  <si>
+    <t>001 - XY - Pulleys - L Bottom.stl</t>
+  </si>
+  <si>
+    <t>002 - XY - Pulleys - L Top.stl</t>
+  </si>
+  <si>
+    <t>003 - XY - Pulleys - R Bottom.stl</t>
+  </si>
+  <si>
+    <t>004 - XY - Pulleys - R Top.stl</t>
+  </si>
+  <si>
+    <t>005 - XY - XY Joint - L Top.stl</t>
+  </si>
+  <si>
+    <t>006 - XY - XY Joint - L Mid.stl</t>
+  </si>
+  <si>
+    <t>007 - XY - XY Joint - L Bottom.stl</t>
+  </si>
+  <si>
+    <t>008 - XY - XY Joint - R Top.stl</t>
+  </si>
+  <si>
+    <t>009 - XY - XY Joint - R Mid.stl</t>
+  </si>
+  <si>
+    <t>010 - XY - XY Joint - R Bottom.stl</t>
+  </si>
+  <si>
+    <t>011 - XY - Tensioner - Bolt Receiver.stl</t>
+  </si>
+  <si>
+    <t>012 - XY - Tensioner - Idler Seat.stl</t>
+  </si>
+  <si>
+    <t>013 - XY - Tensioner - Tensioner Cap.stl</t>
+  </si>
+  <si>
+    <t>014 - XY - Tensioner - Guide Frame.stl</t>
+  </si>
+  <si>
+    <t>015 - XY - Steppers - Vibration Damper (TPU).stl</t>
+  </si>
+  <si>
+    <t>016 - XY - Steppers - Stepper Mount.stl</t>
+  </si>
+  <si>
+    <t>017 - XY - Motion - L Y Axis Rail Guide.stl</t>
+  </si>
+  <si>
+    <t>018 - XY - Motion - R Y Axis Rail Guide.stl</t>
+  </si>
+  <si>
+    <t>019 - Z - Motion - Lower Rail Bracket.stl</t>
+  </si>
+  <si>
+    <t>020 - Z - Bed - Corner Bracket.stl</t>
+  </si>
+  <si>
+    <t>021 - Z - Motion - L Gantry.stl</t>
+  </si>
+  <si>
+    <t>022 - Z - Motion - R Gantry.stl</t>
+  </si>
+  <si>
+    <t>023 - Z - Steppers - L Stepper Mount.stl</t>
+  </si>
+  <si>
+    <t>024 - Z - Steppers - R Stepper Mount.stl</t>
+  </si>
+  <si>
+    <t>025 - Z - Motion - L Z1 Limit Switch.stl</t>
+  </si>
+  <si>
+    <t>026 - Z - Motion - R Z2 Limit Switch.stl</t>
+  </si>
+  <si>
+    <t>027 - Z - Motion - L Lead Screw Plate.stl</t>
+  </si>
+  <si>
+    <t>028 - Z - Motion - R Lead Screw Plate.stl</t>
+  </si>
+  <si>
+    <t>029 - Z - Bed - Wire Support.stl</t>
+  </si>
+  <si>
+    <t>030 - Gantry - Carriage - Carriage Mount.stl</t>
+  </si>
+  <si>
+    <t>031 - Gantry - Carriage - Top Mount.stl</t>
+  </si>
+  <si>
+    <t>032 - Gantry - Carriage - Back Mount.stl</t>
+  </si>
+  <si>
+    <t>033 - Gantry - Carriage - Front Mount.stl</t>
+  </si>
+  <si>
+    <t>034 - Gantry - Carriage - L Belt Clamp.stl</t>
+  </si>
+  <si>
+    <t>035 - Gantry - Carriage - R Belt Clamp.stl</t>
+  </si>
+  <si>
+    <t>040 - Gantry - Hotend - Mounting Bracket.stl</t>
+  </si>
+  <si>
+    <t>041 - Gantry - Hotend - Locking Collar.stl</t>
+  </si>
+  <si>
+    <t>042 - Gantry - Hotend - Fan Intake.stl</t>
+  </si>
+  <si>
+    <t>043 - Gantry - Hotend - PTFE Collar (TPU).stl</t>
+  </si>
+  <si>
+    <t>044 - Gantry - Hotend  - EVA Duct.stl</t>
+  </si>
+  <si>
+    <t>045 - Gantry - Hotend - Fan Mount.stl</t>
+  </si>
+  <si>
+    <t>051 - ABL - Mount - BLTouch.stl</t>
+  </si>
+  <si>
+    <t>060 - Extruder - Bowden - Hotend Adapter.stl</t>
+  </si>
+  <si>
+    <t>061 - Extruder - DD - BMG Mount.stl</t>
+  </si>
+  <si>
+    <t>062 - Extruder - Bowden - BMG Mount.stl</t>
+  </si>
+  <si>
+    <t>070 - Electrical - Wiring - R Panel Plate.stl</t>
+  </si>
+  <si>
+    <t>071 - Electrical - Wiring - L Panel Plate.stl</t>
+  </si>
+  <si>
+    <t>072 - Electrical - Wiring - R Panel Mount.stl</t>
+  </si>
+  <si>
+    <t>073 - Electrical - Wiring - L Panel Mount.stl</t>
+  </si>
+  <si>
+    <t>074 - Electrical - Wiring - R Panel Faceplate.stl</t>
+  </si>
+  <si>
+    <t>075 - Electrical - Wiring - L Panel Faceplate.stl</t>
+  </si>
+  <si>
+    <t>076 - Electrical - Mount - L Octopus Board Mount.stl</t>
+  </si>
+  <si>
+    <t>077 - Electrical - Mount - R Octopus Board Mount.stl</t>
+  </si>
+  <si>
+    <t>078 - Electrical - Mount - L SKR Board Mount.stl</t>
+  </si>
+  <si>
+    <t>079 - Electrical - Mount - R SKR Board Mount.stl</t>
+  </si>
+  <si>
+    <t>082 - Electrical - Lighting - LED Guide, 12mm.stl</t>
+  </si>
+  <si>
+    <t>083 - Electrical - Mount - L RPi Board Mount.stl</t>
+  </si>
+  <si>
+    <t>084 - Electrical - Mount - R RPi Board Mount.stl</t>
+  </si>
+  <si>
+    <t>085 - Electrical - Mount - Buck Converter Mount, DROK 5A.stl</t>
+  </si>
+  <si>
+    <t>086 - Electrical - Mount - PSU Mount.stl</t>
+  </si>
+  <si>
+    <t>087 - Electrical - Camera - Camera Mount.stl</t>
+  </si>
+  <si>
+    <t>088 - Electrical - Camera - Camera Stand.stl</t>
   </si>
 </sst>
 </file>
@@ -1098,8 +1092,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F341AE2-224B-4051-B04D-BA10CC5651EC}" name="Table1" displayName="Table1" ref="A1:I99" totalsRowShown="0">
   <autoFilter ref="A1:I99" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I86">
-    <sortCondition ref="A1:A86"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I83">
+    <sortCondition ref="A1:A83"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A8EA61BD-839A-4759-B873-CEDA7BEA684B}" name="Number"/>
@@ -1415,8 +1409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC8DB31-6D45-4FED-94B6-5390BD4B0F2C}">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,7 +1457,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1484,12 +1478,12 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1510,12 +1504,12 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1536,12 +1530,12 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1562,12 +1556,12 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>227</v>
+        <v>157</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1588,12 +1582,12 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>228</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1614,12 +1608,12 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>229</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -1640,12 +1634,12 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -1666,12 +1660,12 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>69</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>231</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -1692,12 +1686,12 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>70</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>232</v>
+        <v>162</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -1718,12 +1712,12 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>71</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -1744,12 +1738,12 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>72</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -1770,12 +1764,12 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -1796,12 +1790,12 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>74</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -1822,12 +1816,12 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>75</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -1839,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="F16" t="s">
         <v>35</v>
@@ -1848,15 +1842,15 @@
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="I16" t="s">
-        <v>154</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -1877,12 +1871,12 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>76</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -1903,12 +1897,12 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>77</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
@@ -1932,12 +1926,12 @@
         <v>55</v>
       </c>
       <c r="I19" t="s">
-        <v>78</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>187</v>
+        <v>124</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -1958,12 +1952,12 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>79</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -1984,12 +1978,12 @@
         <v>4</v>
       </c>
       <c r="I21" t="s">
-        <v>80</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -2010,12 +2004,12 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>81</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -2036,12 +2030,12 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>82</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -2062,12 +2056,12 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>83</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>223</v>
+        <v>153</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -2088,12 +2082,12 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>84</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -2114,12 +2108,12 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>85</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
@@ -2140,12 +2134,12 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>86</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -2166,12 +2160,12 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>87</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
@@ -2192,12 +2186,12 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>88</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
@@ -2219,12 +2213,12 @@
       </c>
       <c r="H30" s="1"/>
       <c r="I30" t="s">
-        <v>89</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="B31" t="s">
         <v>23</v>
@@ -2246,12 +2240,12 @@
       </c>
       <c r="H31" s="1"/>
       <c r="I31" t="s">
-        <v>146</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>266</v>
+        <v>191</v>
       </c>
       <c r="B32" t="s">
         <v>23</v>
@@ -2273,12 +2267,12 @@
       </c>
       <c r="H32" s="1"/>
       <c r="I32" t="s">
-        <v>145</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>265</v>
+        <v>190</v>
       </c>
       <c r="B33" t="s">
         <v>23</v>
@@ -2300,12 +2294,12 @@
       </c>
       <c r="H33" s="1"/>
       <c r="I33" t="s">
-        <v>147</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>264</v>
+        <v>189</v>
       </c>
       <c r="B34" t="s">
         <v>23</v>
@@ -2327,12 +2321,12 @@
       </c>
       <c r="H34" s="1"/>
       <c r="I34" t="s">
-        <v>148</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>263</v>
+        <v>188</v>
       </c>
       <c r="B35" t="s">
         <v>23</v>
@@ -2344,7 +2338,7 @@
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>241</v>
+        <v>171</v>
       </c>
       <c r="F35" t="s">
         <v>53</v>
@@ -2353,15 +2347,15 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="I35" t="s">
-        <v>90</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>262</v>
+        <v>187</v>
       </c>
       <c r="B36" t="s">
         <v>23</v>
@@ -2373,7 +2367,7 @@
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>241</v>
+        <v>171</v>
       </c>
       <c r="F36" t="s">
         <v>53</v>
@@ -2382,15 +2376,15 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="I36" t="s">
-        <v>91</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>247</v>
+        <v>173</v>
       </c>
       <c r="B37" t="s">
         <v>23</v>
@@ -2402,7 +2396,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="F37" t="s">
         <v>53</v>
@@ -2411,15 +2405,15 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="I37" t="s">
-        <v>246</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>248</v>
+        <v>174</v>
       </c>
       <c r="B38" t="s">
         <v>23</v>
@@ -2440,15 +2434,15 @@
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="I38" t="s">
-        <v>142</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>245</v>
+        <v>172</v>
       </c>
       <c r="B39" t="s">
         <v>23</v>
@@ -2469,15 +2463,15 @@
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="I39" t="s">
-        <v>143</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>221</v>
+        <v>151</v>
       </c>
       <c r="B40" t="s">
         <v>23</v>
@@ -2498,15 +2492,15 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="I40" t="s">
-        <v>144</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="B41" t="s">
         <v>23</v>
@@ -2527,15 +2521,15 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="I41" t="s">
-        <v>92</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>259</v>
+        <v>184</v>
       </c>
       <c r="B42" t="s">
         <v>23</v>
@@ -2556,15 +2550,15 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="I42" t="s">
-        <v>93</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>260</v>
+        <v>185</v>
       </c>
       <c r="B43" t="s">
         <v>48</v>
@@ -2585,27 +2579,27 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="I43" t="s">
-        <v>94</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>272</v>
+        <v>197</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="D44" t="s">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="F44" t="s">
         <v>53</v>
@@ -2614,21 +2608,21 @@
         <v>1</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>251</v>
+        <v>176</v>
       </c>
       <c r="I44" t="s">
-        <v>249</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>261</v>
+        <v>186</v>
       </c>
       <c r="B45" t="s">
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="D45" t="s">
         <v>1</v>
@@ -2644,18 +2638,18 @@
       </c>
       <c r="H45" s="1"/>
       <c r="I45" t="s">
-        <v>149</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>191</v>
+        <v>128</v>
       </c>
       <c r="B46" t="s">
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="D46" t="s">
         <v>1</v>
@@ -2670,27 +2664,27 @@
         <v>1</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="I46" t="s">
-        <v>152</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="F47" t="s">
         <v>53</v>
@@ -2699,27 +2693,27 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="I47" t="s">
-        <v>101</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>211</v>
+        <v>141</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
       </c>
       <c r="E48" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="F48" t="s">
         <v>53</v>
@@ -2728,27 +2722,27 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="I48" t="s">
-        <v>102</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="F49" t="s">
         <v>53</v>
@@ -2757,24 +2751,24 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>105</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>239</v>
+        <v>169</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="D50" t="s">
         <v>5</v>
       </c>
       <c r="E50" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="F50" t="s">
         <v>53</v>
@@ -2783,24 +2777,24 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>106</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>238</v>
+        <v>168</v>
       </c>
       <c r="B51" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="F51" t="s">
         <v>53</v>
@@ -2809,27 +2803,27 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="I51" t="s">
-        <v>107</v>
+        <v>317</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>237</v>
+        <v>167</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="F52" t="s">
         <v>53</v>
@@ -2838,18 +2832,18 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="I52" t="s">
-        <v>108</v>
+        <v>318</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>212</v>
+        <v>142</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
         <v>47</v>
@@ -2858,7 +2852,7 @@
         <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="F53" t="s">
         <v>53</v>
@@ -2867,15 +2861,15 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>114</v>
+        <v>319</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>213</v>
+        <v>143</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
         <v>47</v>
@@ -2884,7 +2878,7 @@
         <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="F54" t="s">
         <v>53</v>
@@ -2893,15 +2887,15 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>113</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>218</v>
+        <v>148</v>
       </c>
       <c r="B55" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="C55" t="s">
         <v>47</v>
@@ -2910,7 +2904,7 @@
         <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="F55" t="s">
         <v>53</v>
@@ -2919,15 +2913,15 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>115</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="B56" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="C56" t="s">
         <v>47</v>
@@ -2936,7 +2930,7 @@
         <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="F56" t="s">
         <v>53</v>
@@ -2945,24 +2939,24 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>116</v>
+        <v>322</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="B57" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="D57" t="s">
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="F57" t="s">
         <v>53</v>
@@ -2971,24 +2965,27 @@
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>243</v>
+        <v>177</v>
+      </c>
+      <c r="I57" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>271</v>
+        <v>145</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="D58" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="F58" t="s">
         <v>53</v>
@@ -2996,28 +2993,25 @@
       <c r="G58">
         <v>1</v>
       </c>
-      <c r="H58" t="s">
-        <v>252</v>
-      </c>
       <c r="I58" t="s">
-        <v>120</v>
+        <v>324</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>215</v>
+        <v>146</v>
       </c>
       <c r="B59" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
         <v>47</v>
       </c>
       <c r="D59" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="F59" t="s">
         <v>53</v>
@@ -3026,24 +3020,24 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>123</v>
+        <v>325</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>216</v>
+        <v>139</v>
       </c>
       <c r="B60" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
         <v>47</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="F60" t="s">
         <v>53</v>
@@ -3052,15 +3046,15 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>124</v>
+        <v>326</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>208</v>
+        <v>144</v>
       </c>
       <c r="B61" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="C61" t="s">
         <v>47</v>
@@ -3069,59 +3063,62 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="F61" t="s">
         <v>53</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>209</v>
+        <v>327</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>214</v>
+        <v>140</v>
       </c>
       <c r="B62" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="D62" t="s">
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="F62" t="s">
         <v>53</v>
       </c>
       <c r="G62">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>94</v>
       </c>
       <c r="I62" t="s">
-        <v>140</v>
+        <v>328</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="B63" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="D63" t="s">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>164</v>
+        <v>239</v>
       </c>
       <c r="F63" t="s">
         <v>53</v>
@@ -3130,47 +3127,44 @@
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>155</v>
+        <v>240</v>
       </c>
       <c r="I63" t="s">
-        <v>165</v>
+        <v>329</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>313</v>
+        <v>130</v>
       </c>
       <c r="B64" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="C64" t="s">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="D64" t="s">
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>314</v>
+        <v>129</v>
       </c>
       <c r="F64" t="s">
         <v>53</v>
       </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-      <c r="H64" t="s">
-        <v>315</v>
+      <c r="G64" t="s">
+        <v>58</v>
       </c>
       <c r="I64" t="s">
-        <v>316</v>
+        <v>267</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>321</v>
+        <v>112</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C65" t="s">
         <v>24</v>
@@ -3179,24 +3173,27 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>322</v>
+        <v>37</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H65" t="s">
+        <v>94</v>
       </c>
       <c r="I65" t="s">
-        <v>323</v>
+        <v>266</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>193</v>
+        <v>127</v>
       </c>
       <c r="B66" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="C66" t="s">
         <v>38</v>
@@ -3205,270 +3202,273 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="F66" t="s">
-        <v>53</v>
-      </c>
-      <c r="G66" t="s">
-        <v>58</v>
+        <v>35</v>
+      </c>
+      <c r="G66">
+        <v>4</v>
+      </c>
+      <c r="H66" t="s">
+        <v>94</v>
       </c>
       <c r="I66" t="s">
-        <v>330</v>
+        <v>265</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="B67" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C67" t="s">
         <v>24</v>
       </c>
       <c r="D67" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E67" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="F67" t="s">
         <v>53</v>
       </c>
       <c r="G67">
-        <v>5</v>
-      </c>
-      <c r="H67" t="s">
-        <v>155</v>
+        <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>95</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="B68" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="C68" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D68" t="s">
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="G68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H68" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="I68" t="s">
-        <v>331</v>
+        <v>263</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>226</v>
+        <v>135</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C69" t="s">
         <v>24</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>56</v>
+        <v>253</v>
       </c>
       <c r="F69" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G69">
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>96</v>
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>196</v>
+        <v>137</v>
       </c>
       <c r="B70" t="s">
         <v>36</v>
       </c>
       <c r="C70" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D70" t="s">
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>195</v>
+        <v>69</v>
       </c>
       <c r="F70" t="s">
         <v>53</v>
       </c>
       <c r="G70">
-        <v>2</v>
-      </c>
-      <c r="H70" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="I70" t="s">
-        <v>194</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
       <c r="B71" t="s">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="C71" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="D71" t="s">
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>201</v>
+        <v>71</v>
       </c>
       <c r="F71" t="s">
         <v>53</v>
       </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
       <c r="I71" t="s">
-        <v>200</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>206</v>
+        <v>134</v>
       </c>
       <c r="B72" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="D72" t="s">
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="F72" t="s">
         <v>53</v>
       </c>
       <c r="G72">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>110</v>
+        <v>262</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="B73" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="D73" t="s">
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="F73" t="s">
         <v>53</v>
       </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
       <c r="I73" t="s">
-        <v>199</v>
+        <v>243</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="B74" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="D74" t="s">
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="F74" t="s">
         <v>53</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I74" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="B75" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="D75" t="s">
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="F75" t="s">
         <v>53</v>
       </c>
       <c r="G75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I75" t="s">
-        <v>317</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>318</v>
+        <v>166</v>
       </c>
       <c r="B76" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="C76" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="D76" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>319</v>
+        <v>78</v>
       </c>
       <c r="F76" t="s">
         <v>53</v>
@@ -3476,77 +3476,86 @@
       <c r="G76">
         <v>1</v>
       </c>
+      <c r="H76" t="s">
+        <v>193</v>
+      </c>
       <c r="I76" t="s">
-        <v>320</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>254</v>
+        <v>165</v>
       </c>
       <c r="B77" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="D77" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E77" t="s">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="F77" t="s">
         <v>53</v>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="H77" t="s">
+        <v>88</v>
       </c>
       <c r="I77" t="s">
-        <v>257</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>253</v>
+        <v>164</v>
       </c>
       <c r="B78" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="C78" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="D78" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E78" t="s">
-        <v>256</v>
+        <v>82</v>
       </c>
       <c r="F78" t="s">
         <v>53</v>
       </c>
       <c r="G78">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="H78" t="s">
+        <v>194</v>
       </c>
       <c r="I78" t="s">
-        <v>258</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="B79" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="C79" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="D79" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="F79" t="s">
         <v>53</v>
@@ -3555,56 +3564,53 @@
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>268</v>
+        <v>195</v>
       </c>
       <c r="I79" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>235</v>
+        <v>163</v>
       </c>
       <c r="B80" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="C80" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="F80" t="s">
         <v>53</v>
       </c>
       <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80" t="s">
-        <v>138</v>
+        <v>4</v>
       </c>
       <c r="I80" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="B81" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="C81" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="D81" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="F81" t="s">
         <v>53</v>
@@ -3612,28 +3618,25 @@
       <c r="G81">
         <v>1</v>
       </c>
-      <c r="H81" t="s">
-        <v>269</v>
-      </c>
       <c r="I81" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="B82" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="C82" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="F82" t="s">
         <v>53</v>
@@ -3641,54 +3644,51 @@
       <c r="G82">
         <v>1</v>
       </c>
-      <c r="H82" t="s">
-        <v>270</v>
-      </c>
       <c r="I82" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="B83" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="C83" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="D83" t="s">
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="F83" t="s">
         <v>53</v>
       </c>
       <c r="G83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="B84" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="C84" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="D84" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="F84" t="s">
         <v>53</v>
@@ -3697,24 +3697,24 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>162</v>
+        <v>246</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="B85" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="C85" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="D85" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E85" t="s">
-        <v>156</v>
+        <v>248</v>
       </c>
       <c r="F85" t="s">
         <v>53</v>
@@ -3723,275 +3723,275 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>159</v>
+        <v>249</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="B86" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="C86" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="D86" t="s">
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>157</v>
+        <v>251</v>
       </c>
       <c r="F86" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G86">
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>158</v>
+        <v>252</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>324</v>
+        <v>254</v>
       </c>
       <c r="B87" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="C87" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>325</v>
+        <v>255</v>
       </c>
       <c r="F87" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G87">
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>327</v>
+        <v>257</v>
       </c>
       <c r="B88" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="C88" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D88" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E88" t="s">
-        <v>328</v>
+        <v>255</v>
       </c>
       <c r="F88" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G88">
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>329</v>
+        <v>258</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>273</v>
+        <v>198</v>
       </c>
       <c r="B89" t="s">
-        <v>276</v>
+        <v>201</v>
       </c>
       <c r="C89" t="s">
-        <v>279</v>
+        <v>204</v>
       </c>
       <c r="D89" t="s">
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>277</v>
+        <v>202</v>
       </c>
       <c r="F89" t="s">
-        <v>291</v>
+        <v>216</v>
       </c>
       <c r="G89">
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>280</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>274</v>
+        <v>199</v>
       </c>
       <c r="B90" t="s">
-        <v>276</v>
+        <v>201</v>
       </c>
       <c r="C90" t="s">
-        <v>279</v>
+        <v>204</v>
       </c>
       <c r="D90" t="s">
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>278</v>
+        <v>203</v>
       </c>
       <c r="F90" t="s">
-        <v>291</v>
+        <v>216</v>
       </c>
       <c r="G90">
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>281</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>275</v>
+        <v>200</v>
       </c>
       <c r="B91" t="s">
-        <v>276</v>
+        <v>201</v>
       </c>
       <c r="C91" t="s">
-        <v>279</v>
+        <v>204</v>
       </c>
       <c r="D91" t="s">
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>282</v>
+        <v>207</v>
       </c>
       <c r="F91" t="s">
-        <v>290</v>
+        <v>215</v>
       </c>
       <c r="G91">
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>283</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>284</v>
+        <v>209</v>
       </c>
       <c r="B92" t="s">
-        <v>276</v>
+        <v>201</v>
       </c>
       <c r="C92" t="s">
-        <v>285</v>
+        <v>210</v>
       </c>
       <c r="D92" t="s">
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>286</v>
+        <v>211</v>
       </c>
       <c r="F92" t="s">
-        <v>290</v>
+        <v>215</v>
       </c>
       <c r="G92">
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>287</v>
+        <v>212</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>288</v>
+        <v>213</v>
       </c>
       <c r="B93" t="s">
-        <v>276</v>
+        <v>201</v>
       </c>
       <c r="C93" t="s">
-        <v>285</v>
+        <v>210</v>
       </c>
       <c r="D93" t="s">
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>289</v>
+        <v>214</v>
       </c>
       <c r="F93" t="s">
-        <v>290</v>
+        <v>215</v>
       </c>
       <c r="G93">
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>292</v>
+        <v>217</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>296</v>
+        <v>221</v>
       </c>
       <c r="B94" t="s">
-        <v>293</v>
+        <v>218</v>
       </c>
       <c r="C94" t="s">
-        <v>285</v>
+        <v>210</v>
       </c>
       <c r="D94" t="s">
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>294</v>
+        <v>219</v>
       </c>
       <c r="F94" t="s">
-        <v>291</v>
+        <v>216</v>
       </c>
       <c r="G94">
         <v>2</v>
       </c>
       <c r="I94" t="s">
-        <v>295</v>
+        <v>220</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>307</v>
+        <v>232</v>
       </c>
       <c r="B95" t="s">
-        <v>276</v>
+        <v>201</v>
       </c>
       <c r="C95" t="s">
-        <v>298</v>
+        <v>223</v>
       </c>
       <c r="D95" t="s">
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>308</v>
+        <v>233</v>
       </c>
       <c r="F95" t="s">
-        <v>291</v>
+        <v>216</v>
       </c>
       <c r="G95">
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>309</v>
+        <v>234</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>310</v>
+        <v>235</v>
       </c>
       <c r="B96" t="s">
-        <v>276</v>
+        <v>201</v>
       </c>
       <c r="C96" t="s">
         <v>36</v>
@@ -4000,94 +4000,94 @@
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>311</v>
+        <v>236</v>
       </c>
       <c r="F96" t="s">
-        <v>290</v>
+        <v>215</v>
       </c>
       <c r="G96">
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>312</v>
+        <v>237</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>297</v>
+        <v>222</v>
       </c>
       <c r="B97" t="s">
-        <v>276</v>
+        <v>201</v>
       </c>
       <c r="C97" t="s">
-        <v>298</v>
+        <v>223</v>
       </c>
       <c r="D97" t="s">
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>302</v>
+        <v>227</v>
       </c>
       <c r="F97" t="s">
-        <v>290</v>
+        <v>215</v>
       </c>
       <c r="G97">
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>304</v>
+        <v>229</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>299</v>
+        <v>224</v>
       </c>
       <c r="B98" t="s">
-        <v>276</v>
+        <v>201</v>
       </c>
       <c r="C98" t="s">
-        <v>298</v>
+        <v>223</v>
       </c>
       <c r="D98" t="s">
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>301</v>
+        <v>226</v>
       </c>
       <c r="F98" t="s">
-        <v>290</v>
+        <v>215</v>
       </c>
       <c r="G98">
         <v>2</v>
       </c>
       <c r="I98" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="B99" t="s">
-        <v>293</v>
+        <v>218</v>
       </c>
       <c r="C99" t="s">
-        <v>298</v>
+        <v>223</v>
       </c>
       <c r="D99" t="s">
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>303</v>
+        <v>228</v>
       </c>
       <c r="F99" t="s">
-        <v>290</v>
+        <v>215</v>
       </c>
       <c r="G99">
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>305</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/BOM/Printed Part List.xlsx
+++ b/BOM/Printed Part List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE20833-40FD-43F5-B286-C56F64526A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AC3BC8-1268-479D-A1D3-D5891885AD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27255" yWindow="3405" windowWidth="23250" windowHeight="12480" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
   </bookViews>
@@ -792,9 +792,6 @@
     <t>PTFE Coupling Guide</t>
   </si>
   <si>
-    <t>122 - Exterior - Frame - PTFE Coupling Guide.stl</t>
-  </si>
-  <si>
     <t>Bearing Alignment Slider</t>
   </si>
   <si>
@@ -1024,6 +1021,9 @@
   </si>
   <si>
     <t>088 - Electrical - Camera - Camera Stand.stl</t>
+  </si>
+  <si>
+    <t>122 - Exterior - Frame - PTFE Coupling Guide (TPU).stl</t>
   </si>
 </sst>
 </file>
@@ -1409,8 +1409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC8DB31-6D45-4FED-94B6-5390BD4B0F2C}">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I94" sqref="I94"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1504,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1530,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1556,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1608,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1634,7 +1634,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1660,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1686,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1712,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1738,7 +1738,7 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1764,7 +1764,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1790,7 +1790,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1816,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1845,7 +1845,7 @@
         <v>94</v>
       </c>
       <c r="I16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1871,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1897,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1926,7 +1926,7 @@
         <v>55</v>
       </c>
       <c r="I19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1952,7 +1952,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1978,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="I21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2004,7 +2004,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2056,7 +2056,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2082,7 +2082,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2108,7 +2108,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2134,7 +2134,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2160,7 +2160,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2186,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="H30" s="1"/>
       <c r="I30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2240,7 +2240,7 @@
       </c>
       <c r="H31" s="1"/>
       <c r="I31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="H32" s="1"/>
       <c r="I32" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="H33" s="1"/>
       <c r="I33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="H34" s="1"/>
       <c r="I34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2350,7 +2350,7 @@
         <v>94</v>
       </c>
       <c r="I35" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2379,7 +2379,7 @@
         <v>94</v>
       </c>
       <c r="I36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2408,7 +2408,7 @@
         <v>94</v>
       </c>
       <c r="I37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2437,7 +2437,7 @@
         <v>94</v>
       </c>
       <c r="I38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2466,7 +2466,7 @@
         <v>94</v>
       </c>
       <c r="I39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2495,7 +2495,7 @@
         <v>94</v>
       </c>
       <c r="I40" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2524,7 +2524,7 @@
         <v>94</v>
       </c>
       <c r="I41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2553,7 +2553,7 @@
         <v>94</v>
       </c>
       <c r="I42" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2582,7 +2582,7 @@
         <v>94</v>
       </c>
       <c r="I43" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2611,7 +2611,7 @@
         <v>176</v>
       </c>
       <c r="I44" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="H45" s="1"/>
       <c r="I45" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2667,7 +2667,7 @@
         <v>99</v>
       </c>
       <c r="I46" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2696,7 +2696,7 @@
         <v>65</v>
       </c>
       <c r="I47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2725,7 +2725,7 @@
         <v>65</v>
       </c>
       <c r="I48" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2751,7 +2751,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2777,7 +2777,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2806,7 +2806,7 @@
         <v>94</v>
       </c>
       <c r="I51" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2835,7 +2835,7 @@
         <v>94</v>
       </c>
       <c r="I52" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2861,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2887,7 +2887,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2913,7 +2913,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2939,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2968,7 +2968,7 @@
         <v>177</v>
       </c>
       <c r="I57" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2994,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -3020,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -3046,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -3072,7 +3072,7 @@
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -3101,7 +3101,7 @@
         <v>94</v>
       </c>
       <c r="I62" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -3130,7 +3130,7 @@
         <v>240</v>
       </c>
       <c r="I63" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -3156,7 +3156,7 @@
         <v>58</v>
       </c>
       <c r="I64" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -3185,7 +3185,7 @@
         <v>94</v>
       </c>
       <c r="I65" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -3214,7 +3214,7 @@
         <v>94</v>
       </c>
       <c r="I66" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -3240,7 +3240,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -3269,7 +3269,7 @@
         <v>94</v>
       </c>
       <c r="I68" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3286,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F69" t="s">
         <v>35</v>
@@ -3295,7 +3295,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3321,7 +3321,7 @@
         <v>16</v>
       </c>
       <c r="I70" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -3347,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -3373,7 +3373,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -3749,12 +3749,12 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>252</v>
+        <v>329</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B87" t="s">
         <v>36</v>
@@ -3766,7 +3766,7 @@
         <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F87" t="s">
         <v>35</v>
@@ -3775,12 +3775,12 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B88" t="s">
         <v>36</v>
@@ -3792,7 +3792,7 @@
         <v>9</v>
       </c>
       <c r="E88" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F88" t="s">
         <v>35</v>
@@ -3801,7 +3801,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">

--- a/BOM/Printed Part List.xlsx
+++ b/BOM/Printed Part List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AC3BC8-1268-479D-A1D3-D5891885AD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D200A636-1B87-4E21-A6BC-5B57D5225726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27255" yWindow="3405" windowWidth="23250" windowHeight="12480" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="329">
   <si>
     <t>Component</t>
   </si>
@@ -153,9 +153,6 @@
     <t>Frame</t>
   </si>
   <si>
-    <t>Frame Base Foot</t>
-  </si>
-  <si>
     <t>Carriage Mount</t>
   </si>
   <si>
@@ -210,9 +207,6 @@
     <t>Qty</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>STL Filename</t>
   </si>
   <si>
@@ -756,9 +750,6 @@
     <t>Camera Stand</t>
   </si>
   <si>
-    <t>Optional</t>
-  </si>
-  <si>
     <t>PN100</t>
   </si>
   <si>
@@ -831,9 +822,6 @@
     <t>092 - Exterior - Frame - Base Foot (TPU).stl</t>
   </si>
   <si>
-    <t>091 - Misc - Limit Switch Cap.stl</t>
-  </si>
-  <si>
     <t>090 - Misc - Frame - Corner Bracket Cover.stl</t>
   </si>
   <si>
@@ -1024,6 +1012,15 @@
   </si>
   <si>
     <t>122 - Exterior - Frame - PTFE Coupling Guide (TPU).stl</t>
+  </si>
+  <si>
+    <t>Count not final</t>
+  </si>
+  <si>
+    <t>091 - Misc - Electrical - Limit Switch Cap.stl</t>
+  </si>
+  <si>
+    <t>Base Foot</t>
   </si>
 </sst>
 </file>
@@ -1409,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC8DB31-6D45-4FED-94B6-5390BD4B0F2C}">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,21 +1440,21 @@
         <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H1" t="s">
         <v>29</v>
       </c>
       <c r="I1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1472,18 +1469,18 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1498,18 +1495,18 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1524,18 +1521,18 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1550,18 +1547,18 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1576,18 +1573,18 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1602,18 +1599,18 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -1628,18 +1625,18 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -1654,18 +1651,18 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -1680,18 +1677,18 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -1706,18 +1703,18 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -1732,18 +1729,18 @@
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -1758,18 +1755,18 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -1784,18 +1781,18 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -1810,18 +1807,18 @@
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -1833,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F16" t="s">
         <v>35</v>
@@ -1842,15 +1839,15 @@
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I16" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -1865,18 +1862,18 @@
         <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17">
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -1888,21 +1885,21 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
@@ -1914,24 +1911,24 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
         <v>54</v>
       </c>
-      <c r="F19" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>55</v>
-      </c>
       <c r="I19" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -1943,21 +1940,21 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G20">
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -1972,18 +1969,18 @@
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G21">
         <v>4</v>
       </c>
       <c r="I21" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -1998,18 +1995,18 @@
         <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -2024,18 +2021,18 @@
         <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -2050,18 +2047,18 @@
         <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -2076,18 +2073,18 @@
         <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -2102,18 +2099,18 @@
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
@@ -2128,18 +2125,18 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -2154,18 +2151,18 @@
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
@@ -2180,18 +2177,18 @@
         <v>27</v>
       </c>
       <c r="F29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
@@ -2206,185 +2203,185 @@
         <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B31" t="s">
         <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B32" t="s">
         <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B33" t="s">
         <v>23</v>
       </c>
       <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
         <v>41</v>
       </c>
-      <c r="D33" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
-        <v>42</v>
-      </c>
       <c r="F33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B34" t="s">
         <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D34" t="s">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B35" t="s">
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I35" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B36" t="s">
         <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I36" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B37" t="s">
         <v>23</v>
@@ -2396,24 +2393,24 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I37" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B38" t="s">
         <v>23</v>
@@ -2428,21 +2425,21 @@
         <v>32</v>
       </c>
       <c r="F38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I38" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B39" t="s">
         <v>23</v>
@@ -2457,21 +2454,21 @@
         <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I39" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B40" t="s">
         <v>23</v>
@@ -2492,15 +2489,15 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I40" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B41" t="s">
         <v>23</v>
@@ -2512,24 +2509,24 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I41" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B42" t="s">
         <v>23</v>
@@ -2541,601 +2538,598 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I42" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
         <v>48</v>
       </c>
-      <c r="C43" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" t="s">
-        <v>49</v>
-      </c>
       <c r="F43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I43" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D44" t="s">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I44" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
         <v>45</v>
       </c>
-      <c r="C45" t="s">
-        <v>91</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
-        <v>46</v>
-      </c>
       <c r="F45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
         <v>45</v>
       </c>
-      <c r="C46" t="s">
-        <v>92</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E46" t="s">
-        <v>46</v>
-      </c>
       <c r="F46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I46" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I47" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
       </c>
       <c r="E48" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I48" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D50" t="s">
         <v>5</v>
       </c>
       <c r="E50" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I51" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I52" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D53" t="s">
         <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D54" t="s">
         <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D55" t="s">
         <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D56" t="s">
         <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D57" t="s">
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I57" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D58" t="s">
         <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G58">
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D60" t="s">
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G60">
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D61" t="s">
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G61">
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D62" t="s">
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G62">
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I62" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D63" t="s">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G63">
         <v>1</v>
       </c>
-      <c r="H63" t="s">
-        <v>240</v>
-      </c>
       <c r="I63" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B64" t="s">
         <v>36</v>
@@ -3147,21 +3141,24 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F64" t="s">
-        <v>53</v>
-      </c>
-      <c r="G64" t="s">
-        <v>58</v>
+        <v>52</v>
+      </c>
+      <c r="G64">
+        <v>42</v>
+      </c>
+      <c r="H64" t="s">
+        <v>326</v>
       </c>
       <c r="I64" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B65" t="s">
         <v>36</v>
@@ -3176,24 +3173,24 @@
         <v>37</v>
       </c>
       <c r="F65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H65" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I65" t="s">
-        <v>265</v>
+        <v>327</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C66" t="s">
         <v>38</v>
@@ -3202,7 +3199,7 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>39</v>
+        <v>328</v>
       </c>
       <c r="F66" t="s">
         <v>35</v>
@@ -3211,15 +3208,15 @@
         <v>4</v>
       </c>
       <c r="H66" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I66" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B67" t="s">
         <v>4</v>
@@ -3231,50 +3228,50 @@
         <v>9</v>
       </c>
       <c r="E67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G67">
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B68" t="s">
         <v>36</v>
       </c>
       <c r="C68" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D68" t="s">
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G68">
         <v>2</v>
       </c>
       <c r="H68" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I68" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B69" t="s">
         <v>36</v>
@@ -3286,73 +3283,73 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F69" t="s">
         <v>35</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I69" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B70" t="s">
         <v>36</v>
       </c>
       <c r="C70" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D70" t="s">
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G70">
         <v>16</v>
       </c>
       <c r="I70" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B71" t="s">
         <v>36</v>
       </c>
       <c r="C71" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D71" t="s">
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B72" t="s">
         <v>4</v>
@@ -3364,322 +3361,322 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G72">
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B73" t="s">
         <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D73" t="s">
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D74" t="s">
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G74">
         <v>3</v>
       </c>
       <c r="I74" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D75" t="s">
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G75">
         <v>3</v>
       </c>
       <c r="I75" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C76" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D76" t="s">
         <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I76" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C77" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D77" t="s">
         <v>9</v>
       </c>
       <c r="E77" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F77" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G77">
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I77" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C78" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D78" t="s">
         <v>5</v>
       </c>
       <c r="E78" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F78" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G78">
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I78" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B79" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C79" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D79" t="s">
         <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G79">
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I79" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B80" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C80" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D80" t="s">
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G80">
         <v>4</v>
       </c>
       <c r="I80" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B81" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C81" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D81" t="s">
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G81">
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B82" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C82" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D82" t="s">
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F82" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G82">
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B83" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C83" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D83" t="s">
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G83">
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B84" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C84" t="s">
         <v>38</v>
@@ -3688,24 +3685,24 @@
         <v>9</v>
       </c>
       <c r="E84" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G84">
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B85" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C85" t="s">
         <v>38</v>
@@ -3714,24 +3711,24 @@
         <v>5</v>
       </c>
       <c r="E85" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F85" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G85">
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B86" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C86" t="s">
         <v>38</v>
@@ -3740,7 +3737,7 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F86" t="s">
         <v>35</v>
@@ -3749,12 +3746,12 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B87" t="s">
         <v>36</v>
@@ -3766,7 +3763,7 @@
         <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F87" t="s">
         <v>35</v>
@@ -3775,12 +3772,12 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B88" t="s">
         <v>36</v>
@@ -3792,7 +3789,7 @@
         <v>9</v>
       </c>
       <c r="E88" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F88" t="s">
         <v>35</v>
@@ -3801,197 +3798,197 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B89" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C89" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D89" t="s">
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F89" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G89">
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>197</v>
+      </c>
+      <c r="B90" t="s">
         <v>199</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
+        <v>202</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
         <v>201</v>
       </c>
-      <c r="C90" t="s">
-        <v>204</v>
-      </c>
-      <c r="D90" t="s">
-        <v>1</v>
-      </c>
-      <c r="E90" t="s">
-        <v>203</v>
-      </c>
       <c r="F90" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G90">
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B91" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C91" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D91" t="s">
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F91" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G91">
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>207</v>
+      </c>
+      <c r="B92" t="s">
+        <v>199</v>
+      </c>
+      <c r="C92" t="s">
+        <v>208</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
         <v>209</v>
       </c>
-      <c r="B92" t="s">
-        <v>201</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="F92" t="s">
+        <v>213</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="I92" t="s">
         <v>210</v>
-      </c>
-      <c r="D92" t="s">
-        <v>1</v>
-      </c>
-      <c r="E92" t="s">
-        <v>211</v>
-      </c>
-      <c r="F92" t="s">
-        <v>215</v>
-      </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-      <c r="I92" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>211</v>
+      </c>
+      <c r="B93" t="s">
+        <v>199</v>
+      </c>
+      <c r="C93" t="s">
+        <v>208</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>212</v>
+      </c>
+      <c r="F93" t="s">
         <v>213</v>
       </c>
-      <c r="B93" t="s">
-        <v>201</v>
-      </c>
-      <c r="C93" t="s">
-        <v>210</v>
-      </c>
-      <c r="D93" t="s">
-        <v>1</v>
-      </c>
-      <c r="E93" t="s">
-        <v>214</v>
-      </c>
-      <c r="F93" t="s">
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="I93" t="s">
         <v>215</v>
-      </c>
-      <c r="G93">
-        <v>1</v>
-      </c>
-      <c r="I93" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B94" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C94" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D94" t="s">
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F94" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G94">
         <v>2</v>
       </c>
       <c r="I94" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>230</v>
+      </c>
+      <c r="B95" t="s">
+        <v>199</v>
+      </c>
+      <c r="C95" t="s">
+        <v>221</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>231</v>
+      </c>
+      <c r="F95" t="s">
+        <v>214</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="I95" t="s">
         <v>232</v>
-      </c>
-      <c r="B95" t="s">
-        <v>201</v>
-      </c>
-      <c r="C95" t="s">
-        <v>223</v>
-      </c>
-      <c r="D95" t="s">
-        <v>1</v>
-      </c>
-      <c r="E95" t="s">
-        <v>233</v>
-      </c>
-      <c r="F95" t="s">
-        <v>216</v>
-      </c>
-      <c r="G95">
-        <v>1</v>
-      </c>
-      <c r="I95" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B96" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C96" t="s">
         <v>36</v>
@@ -4000,94 +3997,94 @@
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F96" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G96">
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B97" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C97" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D97" t="s">
         <v>1</v>
       </c>
       <c r="E97" t="s">
+        <v>225</v>
+      </c>
+      <c r="F97" t="s">
+        <v>213</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="I97" t="s">
         <v>227</v>
-      </c>
-      <c r="F97" t="s">
-        <v>215</v>
-      </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-      <c r="I97" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>222</v>
+      </c>
+      <c r="B98" t="s">
+        <v>199</v>
+      </c>
+      <c r="C98" t="s">
+        <v>221</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
         <v>224</v>
       </c>
-      <c r="B98" t="s">
-        <v>201</v>
-      </c>
-      <c r="C98" t="s">
-        <v>223</v>
-      </c>
-      <c r="D98" t="s">
-        <v>1</v>
-      </c>
-      <c r="E98" t="s">
-        <v>226</v>
-      </c>
       <c r="F98" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G98">
         <v>2</v>
       </c>
       <c r="I98" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B99" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C99" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D99" t="s">
         <v>1</v>
       </c>
       <c r="E99" t="s">
+        <v>226</v>
+      </c>
+      <c r="F99" t="s">
+        <v>213</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="I99" t="s">
         <v>228</v>
-      </c>
-      <c r="F99" t="s">
-        <v>215</v>
-      </c>
-      <c r="G99">
-        <v>1</v>
-      </c>
-      <c r="I99" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/BOM/Printed Part List.xlsx
+++ b/BOM/Printed Part List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D200A636-1B87-4E21-A6BC-5B57D5225726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488D29FC-8A64-42FA-A93E-03F312E6C9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27255" yWindow="3405" windowWidth="23250" windowHeight="12480" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
+    <workbookView xWindow="1545" yWindow="2850" windowWidth="23250" windowHeight="12480" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
   </bookViews>
   <sheets>
     <sheet name="000 - Printed Parts" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="346">
   <si>
     <t>Component</t>
   </si>
@@ -288,12 +288,6 @@
     <t>107 - Exterior - Skirt - R Rear End.stl</t>
   </si>
   <si>
-    <t>108 - Exterior - Skirt - Grille.stl</t>
-  </si>
-  <si>
-    <t>Grille</t>
-  </si>
-  <si>
     <t>Power switch</t>
   </si>
   <si>
@@ -1021,6 +1015,63 @@
   </si>
   <si>
     <t>Base Foot</t>
+  </si>
+  <si>
+    <t>PN111</t>
+  </si>
+  <si>
+    <t>Grill</t>
+  </si>
+  <si>
+    <t>108 - Exterior - Skirt - Grill.stl</t>
+  </si>
+  <si>
+    <t>Fan Finger Guard, 80mm</t>
+  </si>
+  <si>
+    <t>111 - Exterior - Skirt - Fan Finger Guard, 80mm.stl</t>
+  </si>
+  <si>
+    <t>PN125</t>
+  </si>
+  <si>
+    <t>Pull Handle, 120mm</t>
+  </si>
+  <si>
+    <t>125 - Misc - Frame - Pull Handle, 120mm.stl</t>
+  </si>
+  <si>
+    <t>PN126</t>
+  </si>
+  <si>
+    <t>Pull Handle, Narrow, 120mm</t>
+  </si>
+  <si>
+    <t>V Slot Door Handle</t>
+  </si>
+  <si>
+    <t>126 - Misc - Frame - Pull Handle, Narrow, 120mm.stl</t>
+  </si>
+  <si>
+    <t>PN127</t>
+  </si>
+  <si>
+    <t>PN128</t>
+  </si>
+  <si>
+    <t>MIsc</t>
+  </si>
+  <si>
+    <t>Wire Conduit, Bottom</t>
+  </si>
+  <si>
+    <t>Wire Conduit, Top</t>
+  </si>
+  <si>
+    <t>127 - Misc - Frame - Wire Conduit, Top (TPU).stl</t>
+  </si>
+  <si>
+    <t>128 - Misc - Frame - Wire Conduit, Bottom (TPU).stl</t>
   </si>
 </sst>
 </file>
@@ -1087,8 +1138,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F341AE2-224B-4051-B04D-BA10CC5651EC}" name="Table1" displayName="Table1" ref="A1:I99" totalsRowShown="0">
-  <autoFilter ref="A1:I99" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F341AE2-224B-4051-B04D-BA10CC5651EC}" name="Table1" displayName="Table1" ref="A1:I104" totalsRowShown="0">
+  <autoFilter ref="A1:I104" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I83">
     <sortCondition ref="A1:A83"/>
   </sortState>
@@ -1404,10 +1455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC8DB31-6D45-4FED-94B6-5390BD4B0F2C}">
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,7 +1505,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1475,12 +1526,12 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1501,12 +1552,12 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1527,12 +1578,12 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1553,12 +1604,12 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1579,12 +1630,12 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1605,12 +1656,12 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -1631,12 +1682,12 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -1657,12 +1708,12 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -1683,12 +1734,12 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -1709,12 +1760,12 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -1735,12 +1786,12 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -1761,12 +1812,12 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -1787,12 +1838,12 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -1813,12 +1864,12 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -1830,7 +1881,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
         <v>35</v>
@@ -1839,15 +1890,15 @@
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -1868,12 +1919,12 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -1894,12 +1945,12 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
@@ -1923,12 +1974,12 @@
         <v>54</v>
       </c>
       <c r="I19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -1949,12 +2000,12 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -1975,12 +2026,12 @@
         <v>4</v>
       </c>
       <c r="I21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -2001,12 +2052,12 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -2027,12 +2078,12 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -2053,12 +2104,12 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -2079,12 +2130,12 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -2105,12 +2156,12 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
@@ -2131,12 +2182,12 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -2157,12 +2208,12 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
@@ -2183,12 +2234,12 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
@@ -2210,12 +2261,12 @@
       </c>
       <c r="H30" s="1"/>
       <c r="I30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B31" t="s">
         <v>23</v>
@@ -2237,12 +2288,12 @@
       </c>
       <c r="H31" s="1"/>
       <c r="I31" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B32" t="s">
         <v>23</v>
@@ -2264,12 +2315,12 @@
       </c>
       <c r="H32" s="1"/>
       <c r="I32" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B33" t="s">
         <v>23</v>
@@ -2291,12 +2342,12 @@
       </c>
       <c r="H33" s="1"/>
       <c r="I33" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B34" t="s">
         <v>23</v>
@@ -2318,12 +2369,12 @@
       </c>
       <c r="H34" s="1"/>
       <c r="I34" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B35" t="s">
         <v>23</v>
@@ -2335,7 +2386,7 @@
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F35" t="s">
         <v>52</v>
@@ -2344,15 +2395,15 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I35" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B36" t="s">
         <v>23</v>
@@ -2364,7 +2415,7 @@
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F36" t="s">
         <v>52</v>
@@ -2373,15 +2424,15 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I36" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B37" t="s">
         <v>23</v>
@@ -2393,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s">
         <v>52</v>
@@ -2402,15 +2453,15 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I37" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B38" t="s">
         <v>23</v>
@@ -2431,15 +2482,15 @@
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I38" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B39" t="s">
         <v>23</v>
@@ -2460,15 +2511,15 @@
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I39" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B40" t="s">
         <v>23</v>
@@ -2489,15 +2540,15 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B41" t="s">
         <v>23</v>
@@ -2518,15 +2569,15 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I41" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B42" t="s">
         <v>23</v>
@@ -2547,15 +2598,15 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I42" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B43" t="s">
         <v>47</v>
@@ -2576,27 +2627,27 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I43" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D44" t="s">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F44" t="s">
         <v>52</v>
@@ -2605,21 +2656,21 @@
         <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I44" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B45" t="s">
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D45" t="s">
         <v>1</v>
@@ -2635,18 +2686,18 @@
       </c>
       <c r="H45" s="1"/>
       <c r="I45" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B46" t="s">
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D46" t="s">
         <v>1</v>
@@ -2661,15 +2712,15 @@
         <v>0</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I46" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B47" t="s">
         <v>60</v>
@@ -2693,12 +2744,12 @@
         <v>63</v>
       </c>
       <c r="I47" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B48" t="s">
         <v>60</v>
@@ -2722,12 +2773,12 @@
         <v>63</v>
       </c>
       <c r="I48" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B49" t="s">
         <v>60</v>
@@ -2748,12 +2799,12 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B50" t="s">
         <v>60</v>
@@ -2774,12 +2825,12 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B51" t="s">
         <v>60</v>
@@ -2800,15 +2851,15 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I51" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B52" t="s">
         <v>60</v>
@@ -2829,15 +2880,15 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I52" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B53" t="s">
         <v>60</v>
@@ -2858,12 +2909,12 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B54" t="s">
         <v>60</v>
@@ -2884,12 +2935,12 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B55" t="s">
         <v>60</v>
@@ -2910,12 +2961,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B56" t="s">
         <v>60</v>
@@ -2936,12 +2987,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B57" t="s">
         <v>60</v>
@@ -2962,15 +3013,15 @@
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I57" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B58" t="s">
         <v>60</v>
@@ -2991,12 +3042,12 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
@@ -3017,12 +3068,12 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B60" t="s">
         <v>60</v>
@@ -3040,15 +3091,15 @@
         <v>52</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B61" t="s">
         <v>60</v>
@@ -3060,7 +3111,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F61" t="s">
         <v>52</v>
@@ -3069,24 +3120,24 @@
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B62" t="s">
         <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D62" t="s">
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F62" t="s">
         <v>52</v>
@@ -3095,27 +3146,27 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I62" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B63" t="s">
         <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D63" t="s">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F63" t="s">
         <v>52</v>
@@ -3124,12 +3175,12 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B64" t="s">
         <v>36</v>
@@ -3141,24 +3192,24 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s">
         <v>52</v>
       </c>
       <c r="G64">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I64" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B65" t="s">
         <v>36</v>
@@ -3179,15 +3230,15 @@
         <v>4</v>
       </c>
       <c r="H65" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I65" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B66" t="s">
         <v>74</v>
@@ -3199,7 +3250,7 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F66" t="s">
         <v>35</v>
@@ -3208,15 +3259,15 @@
         <v>4</v>
       </c>
       <c r="H66" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I66" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B67" t="s">
         <v>4</v>
@@ -3237,12 +3288,12 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B68" t="s">
         <v>36</v>
@@ -3254,7 +3305,7 @@
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F68" t="s">
         <v>52</v>
@@ -3263,15 +3314,15 @@
         <v>2</v>
       </c>
       <c r="H68" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I68" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B69" t="s">
         <v>36</v>
@@ -3283,7 +3334,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F69" t="s">
         <v>35</v>
@@ -3292,12 +3343,12 @@
         <v>4</v>
       </c>
       <c r="I69" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B70" t="s">
         <v>36</v>
@@ -3318,12 +3369,12 @@
         <v>16</v>
       </c>
       <c r="I70" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B71" t="s">
         <v>36</v>
@@ -3344,12 +3395,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B72" t="s">
         <v>4</v>
@@ -3361,7 +3412,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F72" t="s">
         <v>52</v>
@@ -3370,12 +3421,12 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B73" t="s">
         <v>4</v>
@@ -3387,7 +3438,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F73" t="s">
         <v>52</v>
@@ -3396,12 +3447,12 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B74" t="s">
         <v>74</v>
@@ -3413,7 +3464,7 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F74" t="s">
         <v>52</v>
@@ -3422,12 +3473,12 @@
         <v>3</v>
       </c>
       <c r="I74" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B75" t="s">
         <v>74</v>
@@ -3439,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F75" t="s">
         <v>52</v>
@@ -3448,12 +3499,12 @@
         <v>3</v>
       </c>
       <c r="I75" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B76" t="s">
         <v>74</v>
@@ -3474,7 +3525,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I76" t="s">
         <v>77</v>
@@ -3482,7 +3533,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B77" t="s">
         <v>74</v>
@@ -3503,7 +3554,7 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I77" t="s">
         <v>79</v>
@@ -3511,7 +3562,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B78" t="s">
         <v>74</v>
@@ -3532,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I78" t="s">
         <v>81</v>
@@ -3540,7 +3591,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B79" t="s">
         <v>74</v>
@@ -3561,7 +3612,7 @@
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I79" t="s">
         <v>83</v>
@@ -3569,7 +3620,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B80" t="s">
         <v>74</v>
@@ -3581,7 +3632,7 @@
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>85</v>
+        <v>328</v>
       </c>
       <c r="F80" t="s">
         <v>52</v>
@@ -3590,12 +3641,12 @@
         <v>4</v>
       </c>
       <c r="I80" t="s">
-        <v>84</v>
+        <v>329</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B81" t="s">
         <v>74</v>
@@ -3607,7 +3658,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F81" t="s">
         <v>52</v>
@@ -3616,12 +3667,12 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B82" t="s">
         <v>74</v>
@@ -3633,7 +3684,7 @@
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F82" t="s">
         <v>52</v>
@@ -3642,12 +3693,12 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B83" t="s">
         <v>74</v>
@@ -3659,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F83" t="s">
         <v>52</v>
@@ -3668,38 +3719,38 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>241</v>
+        <v>327</v>
       </c>
       <c r="B84" t="s">
         <v>74</v>
       </c>
       <c r="C84" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>242</v>
+        <v>330</v>
       </c>
       <c r="F84" t="s">
         <v>52</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I84" t="s">
-        <v>243</v>
+        <v>331</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B85" t="s">
         <v>74</v>
@@ -3708,10 +3759,10 @@
         <v>38</v>
       </c>
       <c r="D85" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E85" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F85" t="s">
         <v>52</v>
@@ -3720,12 +3771,12 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B86" t="s">
         <v>74</v>
@@ -3734,36 +3785,36 @@
         <v>38</v>
       </c>
       <c r="D86" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E86" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G86">
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>325</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B87" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="C87" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D87" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F87" t="s">
         <v>35</v>
@@ -3772,12 +3823,12 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>252</v>
+        <v>323</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B88" t="s">
         <v>36</v>
@@ -3786,10 +3837,10 @@
         <v>24</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E88" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F88" t="s">
         <v>35</v>
@@ -3798,293 +3849,426 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>196</v>
+        <v>251</v>
       </c>
       <c r="B89" t="s">
-        <v>199</v>
+        <v>36</v>
       </c>
       <c r="C89" t="s">
-        <v>202</v>
+        <v>24</v>
       </c>
       <c r="D89" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E89" t="s">
-        <v>200</v>
+        <v>249</v>
       </c>
       <c r="F89" t="s">
-        <v>214</v>
+        <v>35</v>
       </c>
       <c r="G89">
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>203</v>
+        <v>252</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>197</v>
+        <v>332</v>
       </c>
       <c r="B90" t="s">
-        <v>199</v>
+        <v>36</v>
       </c>
       <c r="C90" t="s">
-        <v>202</v>
+        <v>38</v>
       </c>
       <c r="D90" t="s">
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>201</v>
+        <v>333</v>
       </c>
       <c r="F90" t="s">
-        <v>214</v>
+        <v>52</v>
       </c>
       <c r="G90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I90" t="s">
-        <v>204</v>
+        <v>334</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>198</v>
+        <v>335</v>
       </c>
       <c r="B91" t="s">
-        <v>199</v>
+        <v>36</v>
       </c>
       <c r="C91" t="s">
-        <v>202</v>
+        <v>38</v>
       </c>
       <c r="D91" t="s">
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>205</v>
+        <v>336</v>
       </c>
       <c r="F91" t="s">
-        <v>213</v>
+        <v>52</v>
       </c>
       <c r="G91">
         <v>1</v>
       </c>
+      <c r="H91" t="s">
+        <v>337</v>
+      </c>
       <c r="I91" t="s">
-        <v>206</v>
+        <v>338</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>207</v>
+        <v>339</v>
       </c>
       <c r="B92" t="s">
-        <v>199</v>
+        <v>341</v>
       </c>
       <c r="C92" t="s">
-        <v>208</v>
+        <v>38</v>
       </c>
       <c r="D92" t="s">
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>209</v>
+        <v>343</v>
       </c>
       <c r="F92" t="s">
-        <v>213</v>
+        <v>35</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>210</v>
+        <v>344</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>211</v>
+        <v>340</v>
       </c>
       <c r="B93" t="s">
-        <v>199</v>
+        <v>36</v>
       </c>
       <c r="C93" t="s">
-        <v>208</v>
+        <v>38</v>
       </c>
       <c r="D93" t="s">
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>212</v>
+        <v>342</v>
       </c>
       <c r="F93" t="s">
-        <v>213</v>
+        <v>35</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>215</v>
+        <v>345</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="B94" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="C94" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D94" t="s">
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="F94" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="B95" t="s">
+        <v>197</v>
+      </c>
+      <c r="C95" t="s">
+        <v>200</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
         <v>199</v>
       </c>
-      <c r="C95" t="s">
-        <v>221</v>
-      </c>
-      <c r="D95" t="s">
-        <v>1</v>
-      </c>
-      <c r="E95" t="s">
-        <v>231</v>
-      </c>
       <c r="F95" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="B96" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C96" t="s">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="D96" t="s">
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="F96" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G96">
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="B97" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C97" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="D97" t="s">
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="F97" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G97">
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B98" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C98" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="D98" t="s">
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="F98" t="s">
+        <v>211</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="I98" t="s">
         <v>213</v>
-      </c>
-      <c r="G98">
-        <v>2</v>
-      </c>
-      <c r="I98" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>217</v>
+      </c>
+      <c r="B99" t="s">
+        <v>214</v>
+      </c>
+      <c r="C99" t="s">
+        <v>206</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>215</v>
+      </c>
+      <c r="F99" t="s">
+        <v>212</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
+      <c r="I99" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>228</v>
+      </c>
+      <c r="B100" t="s">
+        <v>197</v>
+      </c>
+      <c r="C100" t="s">
+        <v>219</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>229</v>
+      </c>
+      <c r="F100" t="s">
+        <v>212</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="I100" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>231</v>
+      </c>
+      <c r="B101" t="s">
+        <v>197</v>
+      </c>
+      <c r="C101" t="s">
+        <v>36</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>232</v>
+      </c>
+      <c r="F101" t="s">
+        <v>211</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="I101" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>218</v>
+      </c>
+      <c r="B102" t="s">
+        <v>197</v>
+      </c>
+      <c r="C102" t="s">
+        <v>219</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
         <v>223</v>
       </c>
-      <c r="B99" t="s">
-        <v>216</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="F102" t="s">
+        <v>211</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="I102" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>220</v>
+      </c>
+      <c r="B103" t="s">
+        <v>197</v>
+      </c>
+      <c r="C103" t="s">
+        <v>219</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>222</v>
+      </c>
+      <c r="F103" t="s">
+        <v>211</v>
+      </c>
+      <c r="G103">
+        <v>2</v>
+      </c>
+      <c r="I103" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>221</v>
       </c>
-      <c r="D99" t="s">
-        <v>1</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="B104" t="s">
+        <v>214</v>
+      </c>
+      <c r="C104" t="s">
+        <v>219</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>224</v>
+      </c>
+      <c r="F104" t="s">
+        <v>211</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="I104" t="s">
         <v>226</v>
-      </c>
-      <c r="F99" t="s">
-        <v>213</v>
-      </c>
-      <c r="G99">
-        <v>1</v>
-      </c>
-      <c r="I99" t="s">
-        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/BOM/Printed Part List.xlsx
+++ b/BOM/Printed Part List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488D29FC-8A64-42FA-A93E-03F312E6C9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD8D0F4-0659-4512-B50E-9A3D20087C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="2850" windowWidth="23250" windowHeight="12480" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
+    <workbookView xWindow="-25500" yWindow="3195" windowWidth="23250" windowHeight="12480" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
   </bookViews>
   <sheets>
     <sheet name="000 - Printed Parts" sheetId="1" r:id="rId1"/>
@@ -1457,8 +1457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC8DB31-6D45-4FED-94B6-5390BD4B0F2C}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="B46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BOM/Printed Part List.xlsx
+++ b/BOM/Printed Part List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD8D0F4-0659-4512-B50E-9A3D20087C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCA2815-D599-4DF2-AB5F-F022520020DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25500" yWindow="3195" windowWidth="23250" windowHeight="12480" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
+    <workbookView xWindow="-25155" yWindow="3540" windowWidth="23250" windowHeight="12480" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
   </bookViews>
   <sheets>
     <sheet name="000 - Printed Parts" sheetId="1" r:id="rId1"/>
@@ -1457,8 +1457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC8DB31-6D45-4FED-94B6-5390BD4B0F2C}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BOM/Printed Part List.xlsx
+++ b/BOM/Printed Part List.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCA2815-D599-4DF2-AB5F-F022520020DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E1CF08-1BF1-4B34-BDD1-B33D999652C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25155" yWindow="3540" windowWidth="23250" windowHeight="12480" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
+    <workbookView xWindow="-14490" yWindow="3090" windowWidth="13320" windowHeight="8985" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
   </bookViews>
   <sheets>
     <sheet name="000 - Printed Parts" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
